--- a/data/histograms/histogram.xlsx
+++ b/data/histograms/histogram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C679"/>
+  <dimension ref="A1:C677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1269,10 +1269,10 @@
         <v>28.74493589743589</v>
       </c>
       <c r="B76" t="n">
-        <v>8.152674815147021</v>
+        <v>8.155636041866408</v>
       </c>
       <c r="C76" t="n">
-        <v>10.21036520632746</v>
+        <v>10.21407383042314</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1280,10 @@
         <v>28.54889423076923</v>
       </c>
       <c r="B77" t="n">
-        <v>8.210689790802014</v>
+        <v>8.213672089807483</v>
       </c>
       <c r="C77" t="n">
-        <v>10.35363506829974</v>
+        <v>10.35739573108861</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1291,10 @@
         <v>28.78160256410257</v>
       </c>
       <c r="B78" t="n">
-        <v>8.316230899729705</v>
+        <v>8.319251533534345</v>
       </c>
       <c r="C78" t="n">
-        <v>10.40193337822238</v>
+        <v>10.40571158399549</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1302,10 @@
         <v>28.50660256410257</v>
       </c>
       <c r="B79" t="n">
-        <v>8.11949867075635</v>
+        <v>8.122447847187036</v>
       </c>
       <c r="C79" t="n">
-        <v>10.25383335281472</v>
+        <v>10.25755776547547</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>26.78900000000001</v>
       </c>
       <c r="B80" t="n">
-        <v>7.874043370224293</v>
+        <v>7.876903392014222</v>
       </c>
       <c r="C80" t="n">
-        <v>10.581416302515</v>
+        <v>10.58525970034387</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1324,10 @@
         <v>26.52400000000001</v>
       </c>
       <c r="B81" t="n">
-        <v>8.042924977745317</v>
+        <v>8.045846340964893</v>
       </c>
       <c r="C81" t="n">
-        <v>10.91635119887013</v>
+        <v>10.92031625225215</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1335,10 @@
         <v>26.86733333333332</v>
       </c>
       <c r="B82" t="n">
-        <v>7.781884634131385</v>
+        <v>7.784711181887585</v>
       </c>
       <c r="C82" t="n">
-        <v>10.42708047549924</v>
+        <v>10.43086781523857</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>24.64733333333334</v>
       </c>
       <c r="B83" t="n">
-        <v>7.378925816952957</v>
+        <v>7.381606001405911</v>
       </c>
       <c r="C83" t="n">
-        <v>10.77769046321332</v>
+        <v>10.78160515203589</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1357,10 @@
         <v>25.22900000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>7.309243581412908</v>
+        <v>7.311898455780224</v>
       </c>
       <c r="C84" t="n">
-        <v>10.42977402714593</v>
+        <v>10.43356234524111</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1368,10 @@
         <v>25.50233333333333</v>
       </c>
       <c r="B85" t="n">
-        <v>7.264798262420532</v>
+        <v>7.26743699329272</v>
       </c>
       <c r="C85" t="n">
-        <v>10.25524739359036</v>
+        <v>10.25897231986111</v>
       </c>
     </row>
     <row r="86">
@@ -1379,10 +1379,10 @@
         <v>29.42233333333334</v>
       </c>
       <c r="B86" t="n">
-        <v>8.007051245450567</v>
+        <v>8.009959578559535</v>
       </c>
       <c r="C86" t="n">
-        <v>9.79711029613175</v>
+        <v>9.800668817161903</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1390,10 @@
         <v>22.89566666666667</v>
       </c>
       <c r="B87" t="n">
-        <v>5.903795805996727</v>
+        <v>5.905940191524534</v>
       </c>
       <c r="C87" t="n">
-        <v>9.282832953071853</v>
+        <v>9.286204677517574</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1401,10 @@
         <v>22.749</v>
       </c>
       <c r="B88" t="n">
-        <v>6.226943418046726</v>
+        <v>6.229205177732686</v>
       </c>
       <c r="C88" t="n">
-        <v>9.854057894838551</v>
+        <v>9.857637100460535</v>
       </c>
     </row>
     <row r="89">
@@ -1412,10 +1412,10 @@
         <v>22.83471428571429</v>
       </c>
       <c r="B89" t="n">
-        <v>6.224650374147673</v>
+        <v>6.226911300950803</v>
       </c>
       <c r="C89" t="n">
-        <v>9.813453790814819</v>
+        <v>9.817018248153513</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +1423,10 @@
         <v>31.34733333333333</v>
       </c>
       <c r="B90" t="n">
-        <v>8.167718759000255</v>
+        <v>8.170685450003392</v>
       </c>
       <c r="C90" t="n">
-        <v>9.379996448097954</v>
+        <v>9.383403464413416</v>
       </c>
     </row>
     <row r="91">
@@ -1434,10 +1434,10 @@
         <v>32.154</v>
       </c>
       <c r="B91" t="n">
-        <v>8.582940305198258</v>
+        <v>8.586057813591385</v>
       </c>
       <c r="C91" t="n">
-        <v>9.609561827055337</v>
+        <v>9.613052226450513</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1445,10 @@
         <v>31.90233333333333</v>
       </c>
       <c r="B92" t="n">
-        <v>8.318355001017652</v>
+        <v>8.321376406341534</v>
       </c>
       <c r="C92" t="n">
-        <v>9.386798667912551</v>
+        <v>9.390208154940449</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1456,10 @@
         <v>32.91733333333334</v>
       </c>
       <c r="B93" t="n">
-        <v>8.638068214500924</v>
+        <v>8.641205746535581</v>
       </c>
       <c r="C93" t="n">
-        <v>9.447012386241287</v>
+        <v>9.450443744185865</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1467,10 @@
         <v>34.704</v>
       </c>
       <c r="B94" t="n">
-        <v>9.930916041982591</v>
+        <v>9.934523164135541</v>
       </c>
       <c r="C94" t="n">
-        <v>10.30178012653796</v>
+        <v>10.30552195449745</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1478,10 @@
         <v>35.289</v>
       </c>
       <c r="B95" t="n">
-        <v>10.1812373228483</v>
+        <v>10.18493536707064</v>
       </c>
       <c r="C95" t="n">
-        <v>10.3863680926787</v>
+        <v>10.39014064480555</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1489,10 @@
         <v>35.27900000000002</v>
       </c>
       <c r="B96" t="n">
-        <v>10.17693653254439</v>
+        <v>10.18063301462726</v>
       </c>
       <c r="C96" t="n">
-        <v>10.38492347208248</v>
+        <v>10.38869549949208</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1500,10 @@
         <v>34.9215</v>
       </c>
       <c r="B97" t="n">
-        <v>10.14030535798962</v>
+        <v>10.14398853484258</v>
       </c>
       <c r="C97" t="n">
-        <v>10.45347401708479</v>
+        <v>10.4572709435257</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1511,10 @@
         <v>35.634</v>
       </c>
       <c r="B98" t="n">
-        <v>10.05087051750407</v>
+        <v>10.05452120970073</v>
       </c>
       <c r="C98" t="n">
-        <v>10.15410390722755</v>
+        <v>10.15779209601016</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1522,10 @@
         <v>35.25066666666666</v>
       </c>
       <c r="B99" t="n">
-        <v>10.06171271206511</v>
+        <v>10.06536734237987</v>
       </c>
       <c r="C99" t="n">
-        <v>10.27559736839996</v>
+        <v>10.27932968621894</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1533,10 @@
         <v>36.024</v>
       </c>
       <c r="B100" t="n">
-        <v>9.712548348030401</v>
+        <v>9.716076154343501</v>
       </c>
       <c r="C100" t="n">
-        <v>9.706077629610659</v>
+        <v>9.709603085619754</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1544,10 @@
         <v>36.01066666666667</v>
       </c>
       <c r="B101" t="n">
-        <v>9.787834773590987</v>
+        <v>9.791389925551993</v>
       </c>
       <c r="C101" t="n">
-        <v>9.784935533432932</v>
+        <v>9.7884896323276</v>
       </c>
     </row>
     <row r="102">
@@ -1555,10 +1555,10 @@
         <v>36.27566666666665</v>
       </c>
       <c r="B102" t="n">
-        <v>9.939259598676259</v>
+        <v>9.942869751388329</v>
       </c>
       <c r="C102" t="n">
-        <v>9.863729007112539</v>
+        <v>9.867311725490366</v>
       </c>
     </row>
     <row r="103">
@@ -1566,10 +1566,10 @@
         <v>35.709</v>
       </c>
       <c r="B103" t="n">
-        <v>9.646863173622355</v>
+        <v>9.650367121668332</v>
       </c>
       <c r="C103" t="n">
-        <v>9.725477449673884</v>
+        <v>9.729009952114589</v>
       </c>
     </row>
     <row r="104">
@@ -1577,10 +1577,10 @@
         <v>35.47066666666667</v>
       </c>
       <c r="B104" t="n">
-        <v>9.775967288272463</v>
+        <v>9.779518129707732</v>
       </c>
       <c r="C104" t="n">
-        <v>9.921855308925931</v>
+        <v>9.92545914002589</v>
       </c>
     </row>
     <row r="105">
@@ -1588,10 +1588,10 @@
         <v>35.14328571428572</v>
       </c>
       <c r="B105" t="n">
-        <v>9.824037142083576</v>
+        <v>9.82760544352292</v>
       </c>
       <c r="C105" t="n">
-        <v>10.06352507817002</v>
+        <v>10.0671803667751</v>
       </c>
     </row>
     <row r="106">
@@ -1599,10 +1599,10 @@
         <v>35.274</v>
       </c>
       <c r="B106" t="n">
-        <v>9.677888512415167</v>
+        <v>9.681403729531024</v>
       </c>
       <c r="C106" t="n">
-        <v>9.877076216106651</v>
+        <v>9.880663782477656</v>
       </c>
     </row>
     <row r="107">
@@ -1610,10 +1610,10 @@
         <v>35.43066666666666</v>
       </c>
       <c r="B107" t="n">
-        <v>9.930270150624926</v>
+        <v>9.933877038176252</v>
       </c>
       <c r="C107" t="n">
-        <v>10.08983908730189</v>
+        <v>10.09350393372065</v>
       </c>
     </row>
     <row r="108">
@@ -1621,10 +1621,10 @@
         <v>35.78949404761905</v>
       </c>
       <c r="B108" t="n">
-        <v>9.814077539998573</v>
+        <v>9.817642223896376</v>
       </c>
       <c r="C108" t="n">
-        <v>9.871801791046915</v>
+        <v>9.875387441633373</v>
       </c>
     </row>
     <row r="109">
@@ -1632,10 +1632,10 @@
         <v>35.5461607142857</v>
       </c>
       <c r="B109" t="n">
-        <v>10.75946701338186</v>
+        <v>10.76337508305578</v>
       </c>
       <c r="C109" t="n">
-        <v>10.89683962200952</v>
+        <v>10.90079758836746</v>
       </c>
     </row>
     <row r="110">
@@ -1643,10 +1643,10 @@
         <v>35.97282738095237</v>
       </c>
       <c r="B110" t="n">
-        <v>10.04196031287976</v>
+        <v>10.04560776869859</v>
       </c>
       <c r="C110" t="n">
-        <v>10.04954565942992</v>
+        <v>10.05319587040964</v>
       </c>
     </row>
     <row r="111">
@@ -1654,10 +1654,10 @@
         <v>35.79282738095238</v>
       </c>
       <c r="B111" t="n">
-        <v>9.987781855753056</v>
+        <v>9.991409632791793</v>
       </c>
       <c r="C111" t="n">
-        <v>10.04559217913181</v>
+        <v>10.04924095412252</v>
       </c>
     </row>
     <row r="112">
@@ -1665,10 +1665,10 @@
         <v>35.53449404761906</v>
       </c>
       <c r="B112" t="n">
-        <v>10.09951268260641</v>
+        <v>10.1031810426829</v>
       </c>
       <c r="C112" t="n">
-        <v>10.23181745845603</v>
+        <v>10.23553387447076</v>
       </c>
     </row>
     <row r="113">
@@ -1676,10 +1676,10 @@
         <v>35.75616071428571</v>
       </c>
       <c r="B113" t="n">
-        <v>9.996171933811537</v>
+        <v>9.999802758306952</v>
       </c>
       <c r="C113" t="n">
-        <v>10.06434086961241</v>
+        <v>10.06799645453047</v>
       </c>
     </row>
     <row r="114">
@@ -1687,10 +1687,10 @@
         <v>35.60282738095238</v>
       </c>
       <c r="B114" t="n">
-        <v>10.85089959726962</v>
+        <v>10.85484087722318</v>
       </c>
       <c r="C114" t="n">
-        <v>10.97194841639728</v>
+        <v>10.97593366388367</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +1698,10 @@
         <v>35.81282738095238</v>
       </c>
       <c r="B115" t="n">
-        <v>10.93475447097918</v>
+        <v>10.93872620882517</v>
       </c>
       <c r="C115" t="n">
-        <v>10.99190401159502</v>
+        <v>10.99589650738249</v>
       </c>
     </row>
     <row r="116">
@@ -1709,10 +1709,10 @@
         <v>35.75782738095239</v>
       </c>
       <c r="B116" t="n">
-        <v>9.573377020470035</v>
+        <v>9.576854276765738</v>
       </c>
       <c r="C116" t="n">
-        <v>9.638213448071685</v>
+        <v>9.641714254351431</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1720,10 @@
         <v>36.65616071428571</v>
       </c>
       <c r="B117" t="n">
-        <v>10.78743793801612</v>
+        <v>10.79135616733105</v>
       </c>
       <c r="C117" t="n">
-        <v>10.59433825586739</v>
+        <v>10.59818634722744</v>
       </c>
     </row>
     <row r="118">
@@ -1731,10 +1731,10 @@
         <v>35.52449404761904</v>
       </c>
       <c r="B118" t="n">
-        <v>10.53624241556286</v>
+        <v>10.54006940526505</v>
       </c>
       <c r="C118" t="n">
-        <v>10.67727316402653</v>
+        <v>10.68115137912776</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1742,10 @@
         <v>35.61282738095238</v>
       </c>
       <c r="B119" t="n">
-        <v>9.888158497001209</v>
+        <v>9.891750088694828</v>
       </c>
       <c r="C119" t="n">
-        <v>9.995659768436051</v>
+        <v>9.999290406901993</v>
       </c>
     </row>
     <row r="120">
@@ -1753,10 +1753,10 @@
         <v>35.78782738095239</v>
       </c>
       <c r="B120" t="n">
-        <v>10.93461043422248</v>
+        <v>10.93858211975122</v>
       </c>
       <c r="C120" t="n">
-        <v>10.99943764235105</v>
+        <v>11.00343287451513</v>
       </c>
     </row>
     <row r="121">
@@ -1764,10 +1764,10 @@
         <v>36.18616071428571</v>
       </c>
       <c r="B121" t="n">
-        <v>10.33638311996682</v>
+        <v>10.34013751647725</v>
       </c>
       <c r="C121" t="n">
-        <v>10.28320730836479</v>
+        <v>10.28694239027753</v>
       </c>
     </row>
     <row r="122">
@@ -1775,10 +1775,10 @@
         <v>36.38782738095239</v>
       </c>
       <c r="B122" t="n">
-        <v>10.40755342526373</v>
+        <v>10.41133367235872</v>
       </c>
       <c r="C122" t="n">
-        <v>10.29662802857036</v>
+        <v>10.30036798517713</v>
       </c>
     </row>
     <row r="123">
@@ -1786,10 +1786,10 @@
         <v>35.8211607142857</v>
       </c>
       <c r="B123" t="n">
-        <v>10.71201102732484</v>
+        <v>10.71590185996464</v>
       </c>
       <c r="C123" t="n">
-        <v>10.76549138258107</v>
+        <v>10.76940164043536</v>
       </c>
     </row>
     <row r="124">
@@ -1797,10 +1797,10 @@
         <v>35.99116071428571</v>
       </c>
       <c r="B124" t="n">
-        <v>10.81768643159096</v>
+        <v>10.82161564780888</v>
       </c>
       <c r="C124" t="n">
-        <v>10.8203432122904</v>
+        <v>10.82427339350818</v>
       </c>
     </row>
     <row r="125">
@@ -1808,10 +1808,10 @@
         <v>36.18949404761905</v>
       </c>
       <c r="B125" t="n">
-        <v>10.78474178291078</v>
+        <v>10.78865903292423</v>
       </c>
       <c r="C125" t="n">
-        <v>10.72827112956921</v>
+        <v>10.73216786822763</v>
       </c>
     </row>
     <row r="126">
@@ -1819,10 +1819,10 @@
         <v>35.56949404761905</v>
       </c>
       <c r="B126" t="n">
-        <v>10.6444184408193</v>
+        <v>10.64828472237891</v>
       </c>
       <c r="C126" t="n">
-        <v>10.77325034076906</v>
+        <v>10.77716341684373</v>
       </c>
     </row>
     <row r="127">
@@ -1830,10 +1830,10 @@
         <v>35.94282738095238</v>
       </c>
       <c r="B127" t="n">
-        <v>10.08818654342257</v>
+        <v>10.09185078960187</v>
       </c>
       <c r="C127" t="n">
-        <v>10.10423336244477</v>
+        <v>10.10790343717364</v>
       </c>
     </row>
     <row r="128">
@@ -1841,10 +1841,10 @@
         <v>35.62282738095239</v>
       </c>
       <c r="B128" t="n">
-        <v>10.96383547971858</v>
+        <v>10.96781778041199</v>
       </c>
       <c r="C128" t="n">
-        <v>11.07991999200252</v>
+        <v>11.08394445708581</v>
       </c>
     </row>
     <row r="129">
@@ -1852,10 +1852,10 @@
         <v>36.09616071428571</v>
       </c>
       <c r="B129" t="n">
-        <v>10.85024737283306</v>
+        <v>10.85418841588469</v>
       </c>
       <c r="C129" t="n">
-        <v>10.82134215086758</v>
+        <v>10.82527269492132</v>
       </c>
     </row>
     <row r="130">
@@ -1863,10 +1863,10 @@
         <v>35.38782738095238</v>
       </c>
       <c r="B130" t="n">
-        <v>10.10668712721295</v>
+        <v>10.11035809320192</v>
       </c>
       <c r="C130" t="n">
-        <v>10.28152230604314</v>
+        <v>10.28525677592682</v>
       </c>
     </row>
     <row r="131">
@@ -1874,10 +1874,10 @@
         <v>35.32616071428572</v>
       </c>
       <c r="B131" t="n">
-        <v>10.33747540605076</v>
+        <v>10.34123019930298</v>
       </c>
       <c r="C131" t="n">
-        <v>10.53466063373629</v>
+        <v>10.53848704890133</v>
       </c>
     </row>
     <row r="132">
@@ -1885,10 +1885,10 @@
         <v>34.54972085385879</v>
       </c>
       <c r="B132" t="n">
-        <v>10.11681159009805</v>
+        <v>10.12048623350955</v>
       </c>
       <c r="C132" t="n">
-        <v>10.54148074839952</v>
+        <v>10.54530964077679</v>
       </c>
     </row>
     <row r="133">
@@ -1896,10 +1896,10 @@
         <v>34.59638752052546</v>
       </c>
       <c r="B133" t="n">
-        <v>10.14493601686259</v>
+        <v>10.14862087567038</v>
       </c>
       <c r="C133" t="n">
-        <v>10.55652693190512</v>
+        <v>10.56036128937963</v>
       </c>
     </row>
     <row r="134">
@@ -1907,2936 +1907,2936 @@
         <v>15.25019704433497</v>
       </c>
       <c r="B134" t="n">
-        <v>4.729397035023831</v>
+        <v>4.731114853676513</v>
       </c>
       <c r="C134" t="n">
-        <v>11.16433399292399</v>
+        <v>11.16838911898674</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>14.83805418719212</v>
+        <v>7.376387520525451</v>
       </c>
       <c r="B135" t="n">
-        <v>4.260926630581182</v>
+        <v>1.658141368193268</v>
       </c>
       <c r="C135" t="n">
-        <v>10.33783518821008</v>
+        <v>8.09245570258563</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>7.404720853858785</v>
+        <v>22.34005418719212</v>
       </c>
       <c r="B136" t="n">
-        <v>2.896734210696578</v>
+        <v>6.81000344937998</v>
       </c>
       <c r="C136" t="n">
-        <v>14.08323603863239</v>
+        <v>10.97401654102671</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>7.376387520525451</v>
+        <v>22.57972085385879</v>
       </c>
       <c r="B137" t="n">
-        <v>1.657539314288605</v>
+        <v>6.860675081990817</v>
       </c>
       <c r="C137" t="n">
-        <v>8.089517415991066</v>
+        <v>10.93832401871614</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>22.34005418719212</v>
+        <v>22.20972085385878</v>
       </c>
       <c r="B138" t="n">
-        <v>6.807530807875394</v>
+        <v>6.776580436725886</v>
       </c>
       <c r="C138" t="n">
-        <v>10.97003198962772</v>
+        <v>10.98423961865086</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>22.57972085385879</v>
+        <v>22.07305418719212</v>
       </c>
       <c r="B139" t="n">
-        <v>6.858184042142848</v>
+        <v>6.694047646689239</v>
       </c>
       <c r="C139" t="n">
-        <v>10.9343524269012</v>
+        <v>10.91764253542423</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>22.20972085385878</v>
+        <v>33.732</v>
       </c>
       <c r="B140" t="n">
-        <v>6.774119930769968</v>
+        <v>8.667371586202661</v>
       </c>
       <c r="C140" t="n">
-        <v>10.98025135535859</v>
+        <v>9.250129761155454</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>22.07305418719212</v>
+        <v>34.98400000000001</v>
       </c>
       <c r="B141" t="n">
-        <v>6.691617107531966</v>
+        <v>9.376186852166786</v>
       </c>
       <c r="C141" t="n">
-        <v>10.91367845284102</v>
+        <v>9.648488642751092</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>33.732</v>
+        <v>35.14</v>
       </c>
       <c r="B142" t="n">
-        <v>8.664224553623452</v>
+        <v>9.109467507331047</v>
       </c>
       <c r="C142" t="n">
-        <v>9.24677113513709</v>
+        <v>9.332408374044327</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>34.98400000000001</v>
+        <v>33.0342857142857</v>
       </c>
       <c r="B143" t="n">
-        <v>9.372782456128258</v>
+        <v>7.80279029178209</v>
       </c>
       <c r="C143" t="n">
-        <v>9.644985376761298</v>
+        <v>8.503300266083235</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>35.14</v>
+        <v>35.57714285714285</v>
       </c>
       <c r="B144" t="n">
-        <v>9.10615995431573</v>
+        <v>8.878814620373953</v>
       </c>
       <c r="C144" t="n">
-        <v>9.329019873516399</v>
+        <v>8.984345022222282</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>33.0342857142857</v>
+        <v>36.85555555555556</v>
       </c>
       <c r="B145" t="n">
-        <v>7.799957179688908</v>
+        <v>9.635150711241337</v>
       </c>
       <c r="C145" t="n">
-        <v>8.500212806095854</v>
+        <v>9.411482756835071</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>35.57714285714285</v>
+        <v>34.91764705882353</v>
       </c>
       <c r="B146" t="n">
-        <v>8.87559081502568</v>
+        <v>9.068640124305428</v>
       </c>
       <c r="C146" t="n">
-        <v>8.981082899881432</v>
+        <v>9.349743524384978</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>36.85555555555556</v>
+        <v>36.52000000000001</v>
       </c>
       <c r="B147" t="n">
-        <v>9.631652288115909</v>
+        <v>9.736975193969197</v>
       </c>
       <c r="C147" t="n">
-        <v>9.408065545220241</v>
+        <v>9.598332611798769</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>34.91764705882353</v>
+        <v>35.07818181818183</v>
       </c>
       <c r="B148" t="n">
-        <v>9.06534739528874</v>
+        <v>8.652792373279965</v>
       </c>
       <c r="C148" t="n">
-        <v>9.346348729644053</v>
+        <v>8.880178769032462</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>36.52000000000001</v>
+        <v>33.34</v>
       </c>
       <c r="B149" t="n">
-        <v>9.733439799431924</v>
+        <v>8.313742273485873</v>
       </c>
       <c r="C149" t="n">
-        <v>9.594847556942748</v>
+        <v>8.977046246115519</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>35.07818181818183</v>
+        <v>36.01963636363637</v>
       </c>
       <c r="B150" t="n">
-        <v>8.649650634261507</v>
+        <v>8.552019903341817</v>
       </c>
       <c r="C150" t="n">
-        <v>8.876954468375981</v>
+        <v>8.547357708228237</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>33.34</v>
+        <v>34.956</v>
       </c>
       <c r="B151" t="n">
-        <v>8.31072364003632</v>
+        <v>8.218659173613791</v>
       </c>
       <c r="C151" t="n">
-        <v>8.973786773884447</v>
+        <v>8.46411861340246</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>36.01963636363637</v>
+        <v>36.61714285714287</v>
       </c>
       <c r="B152" t="n">
-        <v>8.548914753760286</v>
+        <v>8.870174174131114</v>
       </c>
       <c r="C152" t="n">
-        <v>8.544254251441318</v>
+        <v>8.720676856589575</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>34.956</v>
+        <v>36.08000000000001</v>
       </c>
       <c r="B153" t="n">
-        <v>8.21567506385</v>
+        <v>8.541120747144999</v>
       </c>
       <c r="C153" t="n">
-        <v>8.461045379866116</v>
+        <v>8.522182563670176</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>36.61714285714287</v>
+        <v>36.49</v>
       </c>
       <c r="B154" t="n">
-        <v>8.866953506039108</v>
+        <v>8.691670314132088</v>
       </c>
       <c r="C154" t="n">
-        <v>8.717510469420469</v>
+        <v>8.574955640141274</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>36.08000000000001</v>
+        <v>36.08705882352942</v>
       </c>
       <c r="B155" t="n">
-        <v>8.538019554933856</v>
+        <v>8.631900263047729</v>
       </c>
       <c r="C155" t="n">
-        <v>8.519088247716706</v>
+        <v>8.611076092106034</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>36.49</v>
+        <v>35.904</v>
       </c>
       <c r="B156" t="n">
-        <v>8.688514458937203</v>
+        <v>8.649420720697977</v>
       </c>
       <c r="C156" t="n">
-        <v>8.57184216283199</v>
+        <v>8.672547514068826</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>36.08705882352942</v>
+        <v>35.409</v>
       </c>
       <c r="B157" t="n">
-        <v>8.628766109737454</v>
+        <v>8.356644501648987</v>
       </c>
       <c r="C157" t="n">
-        <v>8.607949499835888</v>
+        <v>8.496122512902469</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>35.904</v>
+        <v>35.73333333333333</v>
       </c>
       <c r="B158" t="n">
-        <v>8.646280205891545</v>
+        <v>8.593754259029129</v>
       </c>
       <c r="C158" t="n">
-        <v>8.66939860216398</v>
+        <v>8.657886753499495</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>35.409</v>
+        <v>35.448</v>
       </c>
       <c r="B159" t="n">
-        <v>8.353610290846092</v>
+        <v>8.476122335673022</v>
       </c>
       <c r="C159" t="n">
-        <v>8.493037659082701</v>
+        <v>8.608113407927917</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>35.73333333333333</v>
+        <v>35.6611794871795</v>
       </c>
       <c r="B160" t="n">
-        <v>8.590633956136621</v>
+        <v>7.751046574451734</v>
       </c>
       <c r="C160" t="n">
-        <v>8.654743164764506</v>
+        <v>7.824690060534281</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>35.448</v>
+        <v>35.57784615384616</v>
       </c>
       <c r="B161" t="n">
-        <v>8.473044743709828</v>
+        <v>7.735269171406963</v>
       </c>
       <c r="C161" t="n">
-        <v>8.604987891377618</v>
+        <v>7.827053075851995</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>35.6611794871795</v>
+        <v>35.95117948717949</v>
       </c>
       <c r="B162" t="n">
-        <v>7.748232249964759</v>
+        <v>7.512001277392165</v>
       </c>
       <c r="C162" t="n">
-        <v>7.82184899686258</v>
+        <v>7.522202326701308</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>35.57784615384616</v>
+        <v>35.45951282051282</v>
       </c>
       <c r="B163" t="n">
-        <v>7.732460575531125</v>
+        <v>7.741564706101028</v>
       </c>
       <c r="C163" t="n">
-        <v>7.824211154193979</v>
+        <v>7.859564535765848</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>35.95117948717949</v>
+        <v>36.01284615384616</v>
       </c>
       <c r="B164" t="n">
-        <v>7.509273747769154</v>
+        <v>7.821318027753886</v>
       </c>
       <c r="C164" t="n">
-        <v>7.51947109318327</v>
+        <v>7.81852808290379</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>35.45951282051282</v>
+        <v>35.94784615384616</v>
       </c>
       <c r="B165" t="n">
-        <v>7.738753824381945</v>
+        <v>7.789500943841708</v>
       </c>
       <c r="C165" t="n">
-        <v>7.856710809534493</v>
+        <v>7.800802105866874</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>36.01284615384616</v>
+        <v>35.84284615384615</v>
       </c>
       <c r="B166" t="n">
-        <v>7.818478188432254</v>
+        <v>7.757178088684864</v>
       </c>
       <c r="C166" t="n">
-        <v>7.815689256582148</v>
+        <v>7.791189628022578</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>35.94784615384616</v>
+        <v>35.65951282051282</v>
       </c>
       <c r="B167" t="n">
-        <v>7.786672656972702</v>
+        <v>7.801138269520571</v>
       </c>
       <c r="C167" t="n">
-        <v>7.797969715663342</v>
+        <v>7.87562575844248</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>35.84284615384615</v>
+        <v>35.88451282051281</v>
       </c>
       <c r="B168" t="n">
-        <v>7.754361537908769</v>
+        <v>7.805099634671481</v>
       </c>
       <c r="C168" t="n">
-        <v>7.788360728009889</v>
+        <v>7.830218798109293</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>35.65951282051282</v>
+        <v>35.91951282051282</v>
       </c>
       <c r="B169" t="n">
-        <v>7.79830575725951</v>
+        <v>7.844507807478566</v>
       </c>
       <c r="C169" t="n">
-        <v>7.872766200548027</v>
+        <v>7.862085504343333</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>35.88451282051281</v>
+        <v>36.26951282051282</v>
       </c>
       <c r="B170" t="n">
-        <v>7.802265684079887</v>
+        <v>7.860745431839099</v>
       </c>
       <c r="C170" t="n">
-        <v>7.827375727010414</v>
+        <v>7.802333517591657</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>35.91951282051282</v>
+        <v>36.3261794871795</v>
       </c>
       <c r="B171" t="n">
-        <v>7.84165954818883</v>
+        <v>7.783093680085842</v>
       </c>
       <c r="C171" t="n">
-        <v>7.859230862774479</v>
+        <v>7.713207841798433</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>36.26951282051282</v>
+        <v>35.38451282051282</v>
       </c>
       <c r="B172" t="n">
-        <v>7.857891276836648</v>
+        <v>7.623753997234774</v>
       </c>
       <c r="C172" t="n">
-        <v>7.799500571348441</v>
+        <v>7.756363505486699</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>36.3261794871795</v>
+        <v>35.41951282051281</v>
       </c>
       <c r="B173" t="n">
-        <v>7.780267719627743</v>
+        <v>7.562293511005145</v>
       </c>
       <c r="C173" t="n">
-        <v>7.710407256162185</v>
+        <v>7.686231252692979</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>35.38451282051282</v>
+        <v>34.42451282051282</v>
       </c>
       <c r="B174" t="n">
-        <v>7.620985891360166</v>
+        <v>7.384636483937307</v>
       </c>
       <c r="C174" t="n">
-        <v>7.753547250477302</v>
+        <v>7.722604959083998</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>35.41951282051281</v>
+        <v>35.51451282051283</v>
       </c>
       <c r="B175" t="n">
-        <v>7.559547720794586</v>
+        <v>7.587529107391109</v>
       </c>
       <c r="C175" t="n">
-        <v>7.68344046197598</v>
+        <v>7.691251439842661</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>34.42451282051282</v>
+        <v>35.54784615384616</v>
       </c>
       <c r="B176" t="n">
-        <v>7.38195519914763</v>
+        <v>7.546611681497069</v>
       </c>
       <c r="C176" t="n">
-        <v>7.719800961452091</v>
+        <v>7.64260144927233</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>35.51451282051283</v>
+        <v>35.47451282051284</v>
       </c>
       <c r="B177" t="n">
-        <v>7.58477415439767</v>
+        <v>7.573578399800375</v>
       </c>
       <c r="C177" t="n">
-        <v>7.688458826347861</v>
+        <v>7.685766504315645</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>35.54784615384616</v>
+        <v>35.59951282051281</v>
       </c>
       <c r="B178" t="n">
-        <v>7.543871585195888</v>
+        <v>7.602082788422086</v>
       </c>
       <c r="C178" t="n">
-        <v>7.639826500083691</v>
+        <v>7.687604652429419</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>35.47451282051284</v>
+        <v>35.64117948717949</v>
       </c>
       <c r="B179" t="n">
-        <v>7.57082851216393</v>
+        <v>7.620012126263879</v>
       </c>
       <c r="C179" t="n">
-        <v>7.682975882343954</v>
+        <v>7.696727226554768</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>35.59951282051281</v>
+        <v>35.70617948717948</v>
       </c>
       <c r="B180" t="n">
-        <v>7.59932255113826</v>
+        <v>7.570196293318321</v>
       </c>
       <c r="C180" t="n">
-        <v>7.684813363045245</v>
+        <v>7.632490243245209</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>35.64117948717949</v>
+        <v>35.85951282051282</v>
       </c>
       <c r="B181" t="n">
-        <v>7.617245379023748</v>
+        <v>7.527919014185114</v>
       </c>
       <c r="C181" t="n">
-        <v>7.6939326248587</v>
+        <v>7.557411219363814</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>35.70617948717948</v>
+        <v>35.78784615384615</v>
       </c>
       <c r="B182" t="n">
-        <v>7.567447633689604</v>
+        <v>7.661452960724225</v>
       </c>
       <c r="C182" t="n">
-        <v>7.629718965330434</v>
+        <v>7.706870801902961</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>35.85951282051282</v>
+        <v>35.81284615384617</v>
       </c>
       <c r="B183" t="n">
-        <v>7.525185704997241</v>
+        <v>7.578426697717541</v>
       </c>
       <c r="C183" t="n">
-        <v>7.554667201862628</v>
+        <v>7.618030690602659</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>35.78784615384615</v>
+        <v>37.12284615384615</v>
       </c>
       <c r="B184" t="n">
-        <v>7.658671166747623</v>
+        <v>7.584595561505969</v>
       </c>
       <c r="C184" t="n">
-        <v>7.704072517180063</v>
+        <v>7.355186051270093</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>35.81284615384617</v>
+        <v>36.90784615384615</v>
       </c>
       <c r="B185" t="n">
-        <v>7.575675049714492</v>
+        <v>7.90494073662462</v>
       </c>
       <c r="C185" t="n">
-        <v>7.615264662801231</v>
+        <v>7.710497798550906</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>37.12284615384615</v>
+        <v>38.9611794871795</v>
       </c>
       <c r="B186" t="n">
-        <v>7.581841673652566</v>
+        <v>7.827041776106164</v>
       </c>
       <c r="C186" t="n">
-        <v>7.352515459626563</v>
+        <v>7.232160515893566</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>36.90784615384615</v>
+        <v>39.4861794871795</v>
       </c>
       <c r="B187" t="n">
-        <v>7.902070534766138</v>
+        <v>8.510741322573873</v>
       </c>
       <c r="C187" t="n">
-        <v>7.707698196903207</v>
+        <v>7.759339890356778</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>38.9611794871795</v>
+        <v>30.41784615384615</v>
       </c>
       <c r="B188" t="n">
-        <v>7.824199858550967</v>
+        <v>8.481071753679657</v>
       </c>
       <c r="C188" t="n">
-        <v>7.22953459354384</v>
+        <v>10.03748199620182</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>39.4861794871795</v>
+        <v>30.71356043956045</v>
       </c>
       <c r="B189" t="n">
-        <v>8.507651160816184</v>
+        <v>6.6597494589264</v>
       </c>
       <c r="C189" t="n">
-        <v>7.756522554652955</v>
+        <v>7.806030205880669</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>30.41784615384615</v>
+        <v>30.08784615384615</v>
       </c>
       <c r="B190" t="n">
-        <v>8.477992364634202</v>
+        <v>6.39041748789464</v>
       </c>
       <c r="C190" t="n">
-        <v>10.03383749076657</v>
+        <v>7.646111602268975</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>30.71356043956045</v>
+        <v>30.03722115384615</v>
       </c>
       <c r="B191" t="n">
-        <v>6.657331373084785</v>
+        <v>6.123299778249872</v>
       </c>
       <c r="C191" t="n">
-        <v>7.803195917408337</v>
+        <v>7.338854379635881</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>30.08784615384615</v>
+        <v>7.457846153846154</v>
       </c>
       <c r="B192" t="n">
-        <v>6.388097193693667</v>
+        <v>1.531276350046334</v>
       </c>
       <c r="C192" t="n">
-        <v>7.643335378580249</v>
+        <v>7.39167146445338</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>30.03722115384615</v>
+        <v>7.441179487179489</v>
       </c>
       <c r="B193" t="n">
-        <v>6.121076471714233</v>
+        <v>1.670955676088006</v>
       </c>
       <c r="C193" t="n">
-        <v>7.336189717852655</v>
+        <v>8.083987819781671</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>7.457846153846154</v>
+        <v>7.120346153846153</v>
       </c>
       <c r="B194" t="n">
-        <v>1.530720359511782</v>
+        <v>1.491623064264829</v>
       </c>
       <c r="C194" t="n">
-        <v>7.388987625335363</v>
+        <v>7.541547721598885</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>7.441179487179489</v>
+        <v>32.54504347826087</v>
       </c>
       <c r="B195" t="n">
-        <v>1.670348969441272</v>
+        <v>7.962407644380929</v>
       </c>
       <c r="C195" t="n">
-        <v>8.081052607787383</v>
+        <v>8.807690651548366</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>7.120346153846153</v>
+        <v>31.68909090909091</v>
       </c>
       <c r="B196" t="n">
-        <v>1.491081471426394</v>
+        <v>8.589782118497695</v>
       </c>
       <c r="C196" t="n">
-        <v>7.538809463968935</v>
+        <v>9.758315792429533</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>32.54504347826087</v>
+        <v>31.69012987012986</v>
       </c>
       <c r="B197" t="n">
-        <v>7.959516576885254</v>
+        <v>7.352065282312667</v>
       </c>
       <c r="C197" t="n">
-        <v>8.80449267057428</v>
+        <v>8.35194905315708</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>31.68909090909091</v>
+        <v>33.09631578947369</v>
       </c>
       <c r="B198" t="n">
-        <v>8.586663257848148</v>
+        <v>7.633029169084504</v>
       </c>
       <c r="C198" t="n">
-        <v>9.754772649342664</v>
+        <v>8.30270812724234</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>31.69012987012986</v>
+        <v>33.38000000000001</v>
       </c>
       <c r="B199" t="n">
-        <v>7.349395823787924</v>
+        <v>7.699006045084613</v>
       </c>
       <c r="C199" t="n">
-        <v>8.348916547222753</v>
+        <v>8.303301906022947</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>33.09631578947369</v>
+        <v>32.7</v>
       </c>
       <c r="B200" t="n">
-        <v>7.630257695491356</v>
+        <v>7.902394821505266</v>
       </c>
       <c r="C200" t="n">
-        <v>8.299693500176659</v>
+        <v>8.699884207161759</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>33.38000000000001</v>
+        <v>32.64857142857143</v>
       </c>
       <c r="B201" t="n">
-        <v>7.696210615973211</v>
+        <v>7.800491868517908</v>
       </c>
       <c r="C201" t="n">
-        <v>8.300287063362358</v>
+        <v>8.601224953472096</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>32.7</v>
+        <v>32.10666666666667</v>
       </c>
       <c r="B202" t="n">
-        <v>7.899525544042115</v>
+        <v>7.697720171877034</v>
       </c>
       <c r="C202" t="n">
-        <v>8.69672536958765</v>
+        <v>8.631164644546509</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>32.64857142857143</v>
+        <v>32.89666666666667</v>
       </c>
       <c r="B203" t="n">
-        <v>7.797659590958336</v>
+        <v>7.623716269708755</v>
       </c>
       <c r="C203" t="n">
-        <v>8.598101938048046</v>
+        <v>8.342905635105334</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>32.10666666666667</v>
+        <v>32.98540540540541</v>
       </c>
       <c r="B204" t="n">
-        <v>7.694925209652835</v>
+        <v>7.830006028482599</v>
       </c>
       <c r="C204" t="n">
-        <v>8.628030758331667</v>
+        <v>8.545604141011438</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>32.89666666666667</v>
+        <v>33.30571428571428</v>
       </c>
       <c r="B205" t="n">
-        <v>7.62094817753262</v>
+        <v>7.692384840167221</v>
       </c>
       <c r="C205" t="n">
-        <v>8.339876412742152</v>
+        <v>8.314664921172428</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>32.98540540540541</v>
+        <v>32.83263157894736</v>
       </c>
       <c r="B206" t="n">
-        <v>7.82716303463816</v>
+        <v>7.636589405903891</v>
       </c>
       <c r="C206" t="n">
-        <v>8.542501320926558</v>
+        <v>8.373292221535479</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>33.30571428571428</v>
+        <v>33.33428571428572</v>
       </c>
       <c r="B207" t="n">
-        <v>7.689591815146538</v>
+        <v>7.66349427498591</v>
       </c>
       <c r="C207" t="n">
-        <v>8.311645952719086</v>
+        <v>8.276337350203347</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>32.83263157894736</v>
+        <v>33.225</v>
       </c>
       <c r="B208" t="n">
-        <v>7.633816639625741</v>
+        <v>7.539084370985606</v>
       </c>
       <c r="C208" t="n">
-        <v>8.370251966118444</v>
+        <v>8.168759589329776</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>33.33428571428572</v>
+        <v>32.32173913043479</v>
       </c>
       <c r="B209" t="n">
-        <v>7.660711739829305</v>
+        <v>7.168860297969804</v>
       </c>
       <c r="C209" t="n">
-        <v>8.273332298092846</v>
+        <v>7.984687014687916</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>33.225</v>
+        <v>34.36137931034483</v>
       </c>
       <c r="B210" t="n">
-        <v>7.536347007772672</v>
+        <v>7.978392389276555</v>
       </c>
       <c r="C210" t="n">
-        <v>8.165793597586642</v>
+        <v>8.358864858707372</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>32.32173913043479</v>
+        <v>34.005</v>
       </c>
       <c r="B211" t="n">
-        <v>7.166257359271593</v>
+        <v>7.954097760982599</v>
       </c>
       <c r="C211" t="n">
-        <v>7.981787857784339</v>
+        <v>8.420747519346376</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>34.36137931034483</v>
+        <v>34.18666666666667</v>
       </c>
       <c r="B212" t="n">
-        <v>7.975495517886071</v>
+        <v>7.810402923575065</v>
       </c>
       <c r="C212" t="n">
-        <v>8.355829841715897</v>
+        <v>8.224683265855179</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>34.005</v>
+        <v>32.84347826086956</v>
       </c>
       <c r="B213" t="n">
-        <v>7.951209710719256</v>
+        <v>7.738396994633269</v>
       </c>
       <c r="C213" t="n">
-        <v>8.41769003340371</v>
+        <v>8.48211902509445</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>34.18666666666667</v>
+        <v>33.57391304347826</v>
       </c>
       <c r="B214" t="n">
-        <v>7.807567047414365</v>
+        <v>7.795401189242395</v>
       </c>
       <c r="C214" t="n">
-        <v>8.221696968806079</v>
+        <v>8.358705237882287</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>32.84347826086956</v>
+        <v>33.4725</v>
       </c>
       <c r="B215" t="n">
-        <v>7.735587263077312</v>
+        <v>7.860839543717464</v>
       </c>
       <c r="C215" t="n">
-        <v>8.479039255795625</v>
+        <v>8.454409547354654</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>33.57391304347826</v>
+        <v>33.37176470588235</v>
       </c>
       <c r="B216" t="n">
-        <v>7.792570760055582</v>
+        <v>7.890327715081329</v>
       </c>
       <c r="C216" t="n">
-        <v>8.355670278847475</v>
+        <v>8.511740396301514</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>33.4725</v>
+        <v>32.67529411764706</v>
       </c>
       <c r="B217" t="n">
-        <v>7.857985354543968</v>
+        <v>7.679597716109359</v>
       </c>
       <c r="C217" t="n">
-        <v>8.451339839079328</v>
+        <v>8.460995539459436</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>33.37176470588235</v>
+        <v>32.82260869565217</v>
       </c>
       <c r="B218" t="n">
-        <v>7.887462819059158</v>
+        <v>7.69127407004005</v>
       </c>
       <c r="C218" t="n">
-        <v>8.508649871790531</v>
+        <v>8.435827544631435</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>32.67529411764706</v>
+        <v>32.895</v>
       </c>
       <c r="B219" t="n">
-        <v>7.676809333960579</v>
+        <v>7.958466632931661</v>
       </c>
       <c r="C219" t="n">
-        <v>8.457923439878796</v>
+        <v>8.709676205670764</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>32.82260869565217</v>
+        <v>32.36454545454545</v>
       </c>
       <c r="B220" t="n">
-        <v>7.688481448328461</v>
+        <v>7.692901371863937</v>
       </c>
       <c r="C220" t="n">
-        <v>8.432764583288252</v>
+        <v>8.557031946456895</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>32.895</v>
+        <v>32.724</v>
       </c>
       <c r="B221" t="n">
-        <v>7.955576996376301</v>
+        <v>7.730117157795439</v>
       </c>
       <c r="C221" t="n">
-        <v>8.70651381272372</v>
+        <v>8.503979271502132</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>32.36454545454545</v>
+        <v>32.63200000000001</v>
       </c>
       <c r="B222" t="n">
-        <v>7.690108159295961</v>
+        <v>7.566006933059618</v>
       </c>
       <c r="C222" t="n">
-        <v>8.55392497705458</v>
+        <v>8.346906398325148</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>32.724</v>
+        <v>33.26857142857143</v>
       </c>
       <c r="B223" t="n">
-        <v>7.72731043256222</v>
+        <v>7.707493017331169</v>
       </c>
       <c r="C223" t="n">
-        <v>8.500891564974939</v>
+        <v>8.340296463274884</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>32.63200000000001</v>
+        <v>33.2</v>
       </c>
       <c r="B224" t="n">
-        <v>7.563259794544089</v>
+        <v>7.557436843993641</v>
       </c>
       <c r="C224" t="n">
-        <v>8.343875723326402</v>
+        <v>8.194811035655754</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>33.26857142857143</v>
+        <v>33.21333333333334</v>
       </c>
       <c r="B225" t="n">
-        <v>7.704694506688314</v>
+        <v>7.848052676692912</v>
       </c>
       <c r="C225" t="n">
-        <v>8.337268188274885</v>
+        <v>8.506520364139245</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>33.2</v>
+        <v>35.70167713976164</v>
       </c>
       <c r="B226" t="n">
-        <v>7.554692817188419</v>
+        <v>9.741512356126256</v>
       </c>
       <c r="C226" t="n">
-        <v>8.191835584903105</v>
+        <v>9.822912336798039</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>33.21333333333334</v>
+        <v>35.32791023842917</v>
       </c>
       <c r="B227" t="n">
-        <v>7.845203130297993</v>
+        <v>9.362326587447692</v>
       </c>
       <c r="C227" t="n">
-        <v>8.503431734967714</v>
+        <v>9.540438561845241</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>35.70167713976164</v>
+        <v>34.8993</v>
       </c>
       <c r="B228" t="n">
-        <v>9.741512356126256</v>
+        <v>9.431866809664875</v>
       </c>
       <c r="C228" t="n">
-        <v>9.822912336798039</v>
+        <v>9.729341423694329</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>35.32791023842917</v>
+        <v>35.45352982456141</v>
       </c>
       <c r="B229" t="n">
-        <v>9.362326587447692</v>
+        <v>9.372401835303604</v>
       </c>
       <c r="C229" t="n">
-        <v>9.540438561845241</v>
+        <v>9.516865252643534</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>34.8993</v>
+        <v>35.9585604010025</v>
       </c>
       <c r="B230" t="n">
-        <v>9.431866809664875</v>
+        <v>9.378082191392812</v>
       </c>
       <c r="C230" t="n">
-        <v>9.729341423694329</v>
+        <v>9.388889742113504</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>35.45352982456141</v>
+        <v>36.30068756625776</v>
       </c>
       <c r="B231" t="n">
-        <v>9.372401835303604</v>
+        <v>9.591985735644693</v>
       </c>
       <c r="C231" t="n">
-        <v>9.516865252643534</v>
+        <v>9.512532947287289</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>35.9585604010025</v>
+        <v>34.83034389030458</v>
       </c>
       <c r="B232" t="n">
-        <v>9.378082191392812</v>
+        <v>9.05324296434064</v>
       </c>
       <c r="C232" t="n">
-        <v>9.388889742113504</v>
+        <v>9.357264681127242</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>36.30068756625776</v>
+        <v>35.38645454545455</v>
       </c>
       <c r="B233" t="n">
-        <v>9.591985735644693</v>
+        <v>9.43463991400567</v>
       </c>
       <c r="C233" t="n">
-        <v>9.512532947287289</v>
+        <v>9.598221728258233</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>34.83034389030458</v>
+        <v>35.05632</v>
       </c>
       <c r="B234" t="n">
-        <v>9.05324296434064</v>
+        <v>9.389622740674612</v>
       </c>
       <c r="C234" t="n">
-        <v>9.357264681127242</v>
+        <v>9.642381706473641</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>35.38645454545455</v>
+        <v>35.83557884013679</v>
       </c>
       <c r="B235" t="n">
-        <v>9.43463991400567</v>
+        <v>9.13220815594679</v>
       </c>
       <c r="C235" t="n">
-        <v>9.598221728258233</v>
+        <v>9.174108644391845</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>35.05632</v>
+        <v>35.78294153846154</v>
       </c>
       <c r="B236" t="n">
-        <v>9.389622740674612</v>
+        <v>9.558529268844078</v>
       </c>
       <c r="C236" t="n">
-        <v>9.642381706473641</v>
+        <v>9.616511077171253</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>35.83557884013679</v>
+        <v>34.81515151515151</v>
       </c>
       <c r="B237" t="n">
-        <v>9.13220815594679</v>
+        <v>9.276077529922901</v>
       </c>
       <c r="C237" t="n">
-        <v>9.174108644391845</v>
+        <v>9.591766128948043</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>35.78294153846154</v>
+        <v>35.78315501519757</v>
       </c>
       <c r="B238" t="n">
-        <v>9.558529268844078</v>
+        <v>9.364989748332656</v>
       </c>
       <c r="C238" t="n">
-        <v>9.616511077171253</v>
+        <v>9.421741341611382</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>34.81515151515151</v>
+        <v>36.38728002920774</v>
       </c>
       <c r="B239" t="n">
-        <v>9.276077529922901</v>
+        <v>9.282894381318767</v>
       </c>
       <c r="C239" t="n">
-        <v>9.591766128948043</v>
+        <v>9.184093932254047</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>35.78315501519757</v>
+        <v>36.0890735930736</v>
       </c>
       <c r="B240" t="n">
-        <v>9.364989748332656</v>
+        <v>9.480340291363239</v>
       </c>
       <c r="C240" t="n">
-        <v>9.421741341611382</v>
+        <v>9.456941298559107</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>36.38728002920774</v>
+        <v>35.63246976511743</v>
       </c>
       <c r="B241" t="n">
-        <v>9.282894381318767</v>
+        <v>9.244319821830493</v>
       </c>
       <c r="C241" t="n">
-        <v>9.184093932254047</v>
+        <v>9.339670131754083</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>36.0890735930736</v>
+        <v>36.14716231438812</v>
       </c>
       <c r="B242" t="n">
-        <v>9.480340291363239</v>
+        <v>9.135507535291721</v>
       </c>
       <c r="C242" t="n">
-        <v>9.456941298559107</v>
+        <v>9.098315060255624</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>35.63246976511743</v>
+        <v>36.08545142857143</v>
       </c>
       <c r="B243" t="n">
-        <v>9.244319821830493</v>
+        <v>9.679754271966116</v>
       </c>
       <c r="C243" t="n">
-        <v>9.339670131754083</v>
+        <v>9.656832324255493</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>36.14716231438812</v>
+        <v>35.63565587044534</v>
       </c>
       <c r="B244" t="n">
-        <v>9.135507535291721</v>
+        <v>9.475547091940395</v>
       </c>
       <c r="C244" t="n">
-        <v>9.098315060255624</v>
+        <v>9.572426463820582</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>36.08545142857143</v>
+        <v>36.26638961038961</v>
       </c>
       <c r="B245" t="n">
-        <v>9.679754271966116</v>
+        <v>9.401550209085059</v>
       </c>
       <c r="C245" t="n">
-        <v>9.656832324255493</v>
+        <v>9.332492458253997</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>35.63565587044534</v>
+        <v>36.24840579710145</v>
       </c>
       <c r="B246" t="n">
-        <v>9.475547091940395</v>
+        <v>9.206587743148782</v>
       </c>
       <c r="C246" t="n">
-        <v>9.572426463820582</v>
+        <v>9.14349614734944</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>36.26638961038961</v>
+        <v>36.34189520624304</v>
       </c>
       <c r="B247" t="n">
-        <v>9.401550209085059</v>
+        <v>9.053289102261067</v>
       </c>
       <c r="C247" t="n">
-        <v>9.332492458253997</v>
+        <v>8.968118086076316</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>36.24840579710145</v>
+        <v>36.38950193548387</v>
       </c>
       <c r="B248" t="n">
-        <v>9.206587743148782</v>
+        <v>9.229416006745153</v>
       </c>
       <c r="C248" t="n">
-        <v>9.14349614734944</v>
+        <v>9.130627202095214</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>36.34189520624304</v>
+        <v>36.11903331451158</v>
       </c>
       <c r="B249" t="n">
-        <v>9.053289102261067</v>
+        <v>9.644290452111841</v>
       </c>
       <c r="C249" t="n">
-        <v>8.968118086076316</v>
+        <v>9.612506881144398</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>36.38950193548387</v>
+        <v>36.42033068508923</v>
       </c>
       <c r="B250" t="n">
-        <v>9.229416006745153</v>
+        <v>9.424242240982551</v>
       </c>
       <c r="C250" t="n">
-        <v>9.130627202095214</v>
+        <v>9.315476117142254</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>36.11903331451158</v>
+        <v>36.09837531276063</v>
       </c>
       <c r="B251" t="n">
-        <v>9.644290452111841</v>
+        <v>9.168418816308616</v>
       </c>
       <c r="C251" t="n">
-        <v>9.612506881144398</v>
+        <v>9.143433036179726</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>36.42033068508923</v>
+        <v>34.25405656565657</v>
       </c>
       <c r="B252" t="n">
-        <v>9.424242240982551</v>
+        <v>8.499738303024699</v>
       </c>
       <c r="C252" t="n">
-        <v>9.315476117142254</v>
+        <v>8.932973480743245</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>36.09837531276063</v>
+        <v>33.54458603534054</v>
       </c>
       <c r="B253" t="n">
-        <v>9.168418816308616</v>
+        <v>8.621103199174087</v>
       </c>
       <c r="C253" t="n">
-        <v>9.143433036179726</v>
+        <v>9.252155171725503</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>34.25405656565657</v>
+        <v>36.21324372550654</v>
       </c>
       <c r="B254" t="n">
-        <v>8.499738303024699</v>
+        <v>8.798342128390425</v>
       </c>
       <c r="C254" t="n">
-        <v>8.932973480743245</v>
+        <v>8.746532595172122</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>33.54458603534054</v>
+        <v>36.18650137069753</v>
       </c>
       <c r="B255" t="n">
-        <v>8.621103199174087</v>
+        <v>9.130316317648127</v>
       </c>
       <c r="C255" t="n">
-        <v>9.252155171725503</v>
+        <v>9.083259640609924</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>36.21324372550654</v>
+        <v>36.49090587337911</v>
       </c>
       <c r="B256" t="n">
-        <v>8.798342128390425</v>
+        <v>9.30734622860815</v>
       </c>
       <c r="C256" t="n">
-        <v>8.746532595172122</v>
+        <v>9.182136102418058</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>36.18650137069753</v>
+        <v>35.42679429084739</v>
       </c>
       <c r="B257" t="n">
-        <v>9.130316317648127</v>
+        <v>8.815306233126035</v>
       </c>
       <c r="C257" t="n">
-        <v>9.083259640609924</v>
+        <v>8.957937932152269</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>36.49090587337911</v>
+        <v>35.84840152430524</v>
       </c>
       <c r="B258" t="n">
-        <v>9.30734622860815</v>
+        <v>9.32730493826192</v>
       </c>
       <c r="C258" t="n">
-        <v>9.182136102418058</v>
+        <v>9.366748962286868</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>35.42679429084739</v>
+        <v>36.17252148894084</v>
       </c>
       <c r="B259" t="n">
-        <v>8.815306233126035</v>
+        <v>9.111637864071586</v>
       </c>
       <c r="C259" t="n">
-        <v>8.957937932152269</v>
+        <v>9.068180751703016</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>35.84840152430524</v>
+        <v>35.79271659702133</v>
       </c>
       <c r="B260" t="n">
-        <v>9.32730493826192</v>
+        <v>9.179029188596319</v>
       </c>
       <c r="C260" t="n">
-        <v>9.366748962286868</v>
+        <v>9.232186942104505</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>36.17252148894084</v>
+        <v>35.33315469464622</v>
       </c>
       <c r="B261" t="n">
-        <v>9.111637864071586</v>
+        <v>8.9917864064982</v>
       </c>
       <c r="C261" t="n">
-        <v>9.068180751703016</v>
+        <v>9.161489072556089</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>35.79271659702133</v>
+        <v>35.68906470588235</v>
       </c>
       <c r="B262" t="n">
-        <v>9.179029188596319</v>
+        <v>8.286897915372807</v>
       </c>
       <c r="C262" t="n">
-        <v>9.232186942104505</v>
+        <v>8.359096194085744</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>35.33315469464622</v>
+        <v>35.42502650602409</v>
       </c>
       <c r="B263" t="n">
-        <v>8.9917864064982</v>
+        <v>8.699220068368353</v>
       </c>
       <c r="C263" t="n">
-        <v>9.161489072556089</v>
+        <v>8.840414626309602</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>35.68906470588235</v>
+        <v>36.31628502648049</v>
       </c>
       <c r="B264" t="n">
-        <v>8.286897915372807</v>
+        <v>8.644035530793838</v>
       </c>
       <c r="C264" t="n">
-        <v>8.359096194085744</v>
+        <v>8.568753078176179</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>35.42502650602409</v>
+        <v>36.15619047619047</v>
       </c>
       <c r="B265" t="n">
-        <v>8.699220068368353</v>
+        <v>9.004954630393964</v>
       </c>
       <c r="C265" t="n">
-        <v>8.840414626309602</v>
+        <v>8.966054289034135</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>36.31628502648049</v>
+        <v>36.21325135393438</v>
       </c>
       <c r="B266" t="n">
-        <v>8.644035530793838</v>
+        <v>8.72513748510042</v>
       </c>
       <c r="C266" t="n">
-        <v>8.568753078176179</v>
+        <v>8.673757194394788</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>36.15619047619047</v>
+        <v>35.37820481927711</v>
       </c>
       <c r="B267" t="n">
-        <v>9.004954630393964</v>
+        <v>9.336921494163578</v>
       </c>
       <c r="C267" t="n">
-        <v>8.966054289034135</v>
+        <v>9.501024020493446</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>36.21325135393438</v>
+        <v>35.0711091471498</v>
       </c>
       <c r="B268" t="n">
-        <v>8.72513748510042</v>
+        <v>9.269892956303483</v>
       </c>
       <c r="C268" t="n">
-        <v>8.673757194394788</v>
+        <v>9.515414668715895</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>35.37820481927711</v>
+        <v>35.87059736105557</v>
       </c>
       <c r="B269" t="n">
-        <v>9.336921494163578</v>
+        <v>8.99163175780852</v>
       </c>
       <c r="C269" t="n">
-        <v>9.501024020493446</v>
+        <v>9.024068933754192</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>35.0711091471498</v>
+        <v>36.01577959058027</v>
       </c>
       <c r="B270" t="n">
-        <v>9.269892956303483</v>
+        <v>8.463060862189549</v>
       </c>
       <c r="C270" t="n">
-        <v>9.515414668715895</v>
+        <v>8.459352942022905</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>35.87059736105557</v>
+        <v>36.27162114942529</v>
       </c>
       <c r="B271" t="n">
-        <v>8.99163175780852</v>
+        <v>8.473296079575771</v>
       </c>
       <c r="C271" t="n">
-        <v>9.024068933754192</v>
+        <v>8.409843541541319</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>36.01577959058027</v>
+        <v>36.77113645774516</v>
       </c>
       <c r="B272" t="n">
-        <v>8.463060862189549</v>
+        <v>8.586602493232883</v>
       </c>
       <c r="C272" t="n">
-        <v>8.459352942022905</v>
+        <v>8.406530761201802</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>36.27162114942529</v>
+        <v>36.65233564647282</v>
       </c>
       <c r="B273" t="n">
-        <v>8.473296079575771</v>
+        <v>8.569226915244135</v>
       </c>
       <c r="C273" t="n">
-        <v>8.409843541541319</v>
+        <v>8.416712427942532</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>36.77113645774516</v>
+        <v>35.79828405797101</v>
       </c>
       <c r="B274" t="n">
-        <v>8.586602493232883</v>
+        <v>8.824410252372065</v>
       </c>
       <c r="C274" t="n">
-        <v>8.406530761201802</v>
+        <v>8.874133982817495</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>36.65233564647282</v>
+        <v>36.48196503703704</v>
       </c>
       <c r="B275" t="n">
-        <v>8.569226915244135</v>
+        <v>8.681428750754797</v>
       </c>
       <c r="C275" t="n">
-        <v>8.416712427942532</v>
+        <v>8.566737967921577</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>35.79828405797101</v>
+        <v>36.56371627906977</v>
       </c>
       <c r="B276" t="n">
-        <v>8.824410252372065</v>
+        <v>8.627455133318898</v>
       </c>
       <c r="C276" t="n">
-        <v>8.874133982817495</v>
+        <v>8.494442480324983</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>36.48196503703704</v>
+        <v>36.63781196581196</v>
       </c>
       <c r="B277" t="n">
-        <v>8.681428750754797</v>
+        <v>8.994088923938671</v>
       </c>
       <c r="C277" t="n">
-        <v>8.566737967921577</v>
+        <v>8.837514684663196</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>36.56371627906977</v>
+        <v>37.04467878787878</v>
       </c>
       <c r="B278" t="n">
-        <v>8.627455133318898</v>
+        <v>9.581754762511034</v>
       </c>
       <c r="C278" t="n">
-        <v>8.494442480324983</v>
+        <v>9.311544403599054</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>36.63781196581196</v>
+        <v>36.60232528180354</v>
       </c>
       <c r="B279" t="n">
-        <v>8.994088923938671</v>
+        <v>9.552672669750818</v>
       </c>
       <c r="C279" t="n">
-        <v>8.837514684663196</v>
+        <v>9.395474562431524</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>37.04467878787878</v>
+        <v>35.78562914769031</v>
       </c>
       <c r="B280" t="n">
-        <v>9.581754762511034</v>
+        <v>9.113362951610025</v>
       </c>
       <c r="C280" t="n">
-        <v>9.311544403599054</v>
+        <v>9.16795579879126</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>36.60232528180354</v>
+        <v>36.23917288717289</v>
       </c>
       <c r="B281" t="n">
-        <v>9.552672669750818</v>
+        <v>8.247625669394285</v>
       </c>
       <c r="C281" t="n">
-        <v>9.395474562431524</v>
+        <v>8.193192626735948</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>35.78562914769031</v>
+        <v>35.89291929824562</v>
       </c>
       <c r="B282" t="n">
-        <v>9.113362951610025</v>
+        <v>8.431078435177335</v>
       </c>
       <c r="C282" t="n">
-        <v>9.16795579879126</v>
+        <v>8.456231189899885</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>36.23917288717289</v>
+        <v>36.05380287081339</v>
       </c>
       <c r="B283" t="n">
-        <v>8.247625669394285</v>
+        <v>7.810068731985418</v>
       </c>
       <c r="C283" t="n">
-        <v>8.193192626735948</v>
+        <v>7.798413813902674</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>35.89291929824562</v>
+        <v>36.0300836940837</v>
       </c>
       <c r="B284" t="n">
-        <v>8.431078435177335</v>
+        <v>7.53461791529039</v>
       </c>
       <c r="C284" t="n">
-        <v>8.456231189899885</v>
+        <v>7.528326807494869</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>36.05380287081339</v>
+        <v>36.49228571428572</v>
       </c>
       <c r="B285" t="n">
-        <v>7.810068731985418</v>
+        <v>8.130697800843198</v>
       </c>
       <c r="C285" t="n">
-        <v>7.798413813902674</v>
+        <v>8.021013622497456</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>36.0300836940837</v>
+        <v>36.78163636363637</v>
       </c>
       <c r="B286" t="n">
-        <v>7.53461791529039</v>
+        <v>8.549868831523531</v>
       </c>
       <c r="C286" t="n">
-        <v>7.528326807494869</v>
+        <v>8.368177937813133</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>36.49228571428572</v>
+        <v>37.00946938775511</v>
       </c>
       <c r="B287" t="n">
-        <v>8.130697800843198</v>
+        <v>8.948836525734336</v>
       </c>
       <c r="C287" t="n">
-        <v>8.021013622497456</v>
+        <v>8.704748278099464</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>36.78163636363637</v>
+        <v>35.99623134759977</v>
       </c>
       <c r="B288" t="n">
-        <v>8.549868831523531</v>
+        <v>8.324087999572042</v>
       </c>
       <c r="C288" t="n">
-        <v>8.368177937813133</v>
+        <v>8.324959496199464</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>37.00946938775511</v>
+        <v>35.51144186046511</v>
       </c>
       <c r="B289" t="n">
-        <v>8.948836525734336</v>
+        <v>8.447608066565548</v>
       </c>
       <c r="C289" t="n">
-        <v>8.704748278099464</v>
+        <v>8.563828289240199</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>35.99623134759977</v>
+        <v>34.98193694829759</v>
       </c>
       <c r="B290" t="n">
-        <v>8.324087999572042</v>
+        <v>8.370921277520651</v>
       </c>
       <c r="C290" t="n">
-        <v>8.324959496199464</v>
+        <v>8.614536308728006</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>35.51144186046511</v>
+        <v>36.70336510567758</v>
       </c>
       <c r="B291" t="n">
-        <v>8.447608066565548</v>
+        <v>8.12831429687958</v>
       </c>
       <c r="C291" t="n">
-        <v>8.563828289240199</v>
+        <v>7.972547308540931</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>34.98193694829759</v>
+        <v>43.69002526315789</v>
       </c>
       <c r="B292" t="n">
-        <v>8.370921277520651</v>
+        <v>10.80729646125509</v>
       </c>
       <c r="C292" t="n">
-        <v>8.614536308728006</v>
+        <v>8.905068611467817</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>36.70336510567758</v>
+        <v>35.60190545454546</v>
       </c>
       <c r="B293" t="n">
-        <v>8.12831429687958</v>
+        <v>8.975196103622464</v>
       </c>
       <c r="C293" t="n">
-        <v>7.972547308540931</v>
+        <v>9.075555243607225</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>43.69002526315789</v>
+        <v>36.35613913043479</v>
       </c>
       <c r="B294" t="n">
-        <v>10.80729646125509</v>
+        <v>8.954586494844524</v>
       </c>
       <c r="C294" t="n">
-        <v>8.905068611467817</v>
+        <v>8.866868746922071</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>35.60190545454546</v>
+        <v>35.73721454545454</v>
       </c>
       <c r="B295" t="n">
-        <v>8.975196103622464</v>
+        <v>8.821239377298067</v>
       </c>
       <c r="C295" t="n">
-        <v>9.075555243607225</v>
+        <v>8.886104348698375</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>36.35613913043479</v>
+        <v>36.36605719806762</v>
       </c>
       <c r="B296" t="n">
-        <v>8.954586494844524</v>
+        <v>8.963494752758857</v>
       </c>
       <c r="C296" t="n">
-        <v>8.866868746922071</v>
+        <v>8.873269085559967</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>35.73721454545454</v>
+        <v>36.41595388888889</v>
       </c>
       <c r="B297" t="n">
-        <v>8.821239377298067</v>
+        <v>9.096416181803118</v>
       </c>
       <c r="C297" t="n">
-        <v>8.886104348698375</v>
+        <v>8.99251420254102</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>36.36605719806762</v>
+        <v>36.80046421404684</v>
       </c>
       <c r="B298" t="n">
-        <v>8.963494752758857</v>
+        <v>9.141812155070614</v>
       </c>
       <c r="C298" t="n">
-        <v>8.873269085559967</v>
+        <v>8.942964297089537</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>36.41595388888889</v>
+        <v>36.42992318181819</v>
       </c>
       <c r="B299" t="n">
-        <v>9.096416181803118</v>
+        <v>9.069988950072098</v>
       </c>
       <c r="C299" t="n">
-        <v>8.99251420254102</v>
+        <v>8.962950609941396</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>36.80046421404684</v>
+        <v>35.65954825174825</v>
       </c>
       <c r="B300" t="n">
-        <v>9.141812155070614</v>
+        <v>8.864285821358642</v>
       </c>
       <c r="C300" t="n">
-        <v>8.942964297089537</v>
+        <v>8.948915654119824</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>36.42992318181819</v>
+        <v>35.34962265111346</v>
       </c>
       <c r="B301" t="n">
-        <v>9.069988950072098</v>
+        <v>9.186853940237931</v>
       </c>
       <c r="C301" t="n">
-        <v>8.962950609941396</v>
+        <v>9.355877575065096</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>35.65954825174825</v>
+        <v>35.19268472222222</v>
       </c>
       <c r="B302" t="n">
-        <v>8.864285821358642</v>
+        <v>9.031710586522719</v>
       </c>
       <c r="C302" t="n">
-        <v>8.948915654119824</v>
+        <v>9.238896767358845</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>35.34962265111346</v>
+        <v>35.39846089068826</v>
       </c>
       <c r="B303" t="n">
-        <v>9.186853940237931</v>
+        <v>9.294901900709679</v>
       </c>
       <c r="C303" t="n">
-        <v>9.355877575065096</v>
+        <v>9.452853598885453</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>35.19268472222222</v>
+        <v>36.13839042735042</v>
       </c>
       <c r="B304" t="n">
-        <v>9.031710586522719</v>
+        <v>9.503404054071156</v>
       </c>
       <c r="C304" t="n">
-        <v>9.238896767358845</v>
+        <v>9.467011172905888</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>35.39846089068826</v>
+        <v>36.28217305263159</v>
       </c>
       <c r="B305" t="n">
-        <v>9.294901900709679</v>
+        <v>9.471687982477246</v>
       </c>
       <c r="C305" t="n">
-        <v>9.452853598885453</v>
+        <v>9.398024943945552</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>36.13839042735042</v>
+        <v>36.23127272727274</v>
       </c>
       <c r="B306" t="n">
-        <v>9.503404054071156</v>
+        <v>9.589343496219154</v>
       </c>
       <c r="C306" t="n">
-        <v>9.467011172905888</v>
+        <v>9.528132463423823</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>36.28217305263159</v>
+        <v>36.23275315315315</v>
       </c>
       <c r="B307" t="n">
-        <v>9.471687982477246</v>
+        <v>9.590475489206369</v>
       </c>
       <c r="C307" t="n">
-        <v>9.398024943945552</v>
+        <v>9.528867876864151</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>36.23127272727274</v>
+        <v>36.16026684782609</v>
       </c>
       <c r="B308" t="n">
-        <v>9.589343496219154</v>
+        <v>9.437269030777177</v>
       </c>
       <c r="C308" t="n">
-        <v>9.528132463423823</v>
+        <v>9.395441868217386</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>36.23275315315315</v>
+        <v>36.20312666666666</v>
       </c>
       <c r="B309" t="n">
-        <v>9.590475489206369</v>
+        <v>9.338331602294438</v>
       </c>
       <c r="C309" t="n">
-        <v>9.528867876864151</v>
+        <v>9.28593656503517</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>36.16026684782609</v>
+        <v>36.23185992094862</v>
       </c>
       <c r="B310" t="n">
-        <v>9.437269030777177</v>
+        <v>9.489084250946281</v>
       </c>
       <c r="C310" t="n">
-        <v>9.395441868217386</v>
+        <v>9.428360392742492</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>36.20312666666666</v>
+        <v>36.16606787878789</v>
       </c>
       <c r="B311" t="n">
-        <v>9.338331602294438</v>
+        <v>9.544334636414447</v>
       </c>
       <c r="C311" t="n">
-        <v>9.28593656503517</v>
+        <v>9.500508821210447</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>36.23185992094862</v>
+        <v>36.05274237762237</v>
       </c>
       <c r="B312" t="n">
-        <v>9.489084250946281</v>
+        <v>9.400219937832578</v>
       </c>
       <c r="C312" t="n">
-        <v>9.428360392742492</v>
+        <v>9.386468142074532</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>36.16606787878789</v>
+        <v>35.30299795454544</v>
       </c>
       <c r="B313" t="n">
-        <v>9.544334636414447</v>
+        <v>9.057458490934803</v>
       </c>
       <c r="C313" t="n">
-        <v>9.500508821210447</v>
+        <v>9.236283731299086</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>36.05274237762237</v>
+        <v>36.66980363636362</v>
       </c>
       <c r="B314" t="n">
-        <v>9.400219937832578</v>
+        <v>9.59165580439636</v>
       </c>
       <c r="C314" t="n">
-        <v>9.386468142074532</v>
+        <v>9.416456449629106</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>35.30299795454544</v>
+        <v>37.19763956363636</v>
       </c>
       <c r="B315" t="n">
-        <v>9.057458490934803</v>
+        <v>9.730632491846897</v>
       </c>
       <c r="C315" t="n">
-        <v>9.236283731299086</v>
+        <v>9.417338675675998</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>36.66980363636362</v>
+        <v>36.85710090909091</v>
       </c>
       <c r="B316" t="n">
-        <v>9.59165580439636</v>
+        <v>9.573814962932252</v>
       </c>
       <c r="C316" t="n">
-        <v>9.416456449629106</v>
+        <v>9.351178746143605</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>37.19763956363636</v>
+        <v>37.06623692307691</v>
       </c>
       <c r="B317" t="n">
-        <v>9.730632491846897</v>
+        <v>9.453879740619199</v>
       </c>
       <c r="C317" t="n">
-        <v>9.417338675675998</v>
+        <v>9.181932100865639</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>36.85710090909091</v>
+        <v>37.2400299850075</v>
       </c>
       <c r="B318" t="n">
-        <v>9.573814962932252</v>
+        <v>9.672928242298223</v>
       </c>
       <c r="C318" t="n">
-        <v>9.351178746143605</v>
+        <v>9.350836099297675</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>37.06623692307691</v>
+        <v>37.17040123076922</v>
       </c>
       <c r="B319" t="n">
-        <v>9.453879740619199</v>
+        <v>9.796750911232822</v>
       </c>
       <c r="C319" t="n">
-        <v>9.181932100865639</v>
+        <v>9.488276185526745</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>37.2400299850075</v>
+        <v>37.98715235732009</v>
       </c>
       <c r="B320" t="n">
-        <v>9.672928242298223</v>
+        <v>10.0226182182737</v>
       </c>
       <c r="C320" t="n">
-        <v>9.350836099297675</v>
+        <v>9.498323340057489</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>37.17040123076922</v>
+        <v>37.79211197368421</v>
       </c>
       <c r="B321" t="n">
-        <v>9.796750911232822</v>
+        <v>9.772271489494861</v>
       </c>
       <c r="C321" t="n">
-        <v>9.488276185526745</v>
+        <v>9.308867783488395</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>37.98715235732009</v>
+        <v>36.64402145454545</v>
       </c>
       <c r="B322" t="n">
-        <v>10.0226182182737</v>
+        <v>9.483362959338868</v>
       </c>
       <c r="C322" t="n">
-        <v>9.498323340057489</v>
+        <v>9.316692136524514</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>37.79211197368421</v>
+        <v>36.21199224615386</v>
       </c>
       <c r="B323" t="n">
-        <v>9.772271489494861</v>
+        <v>9.356172861563437</v>
       </c>
       <c r="C323" t="n">
-        <v>9.308867783488395</v>
+        <v>9.301399954101068</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>36.64402145454545</v>
+        <v>36.87741460869564</v>
       </c>
       <c r="B324" t="n">
-        <v>9.483362959338868</v>
+        <v>9.763961452543962</v>
       </c>
       <c r="C324" t="n">
-        <v>9.316692136524514</v>
+        <v>9.531650090478381</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>36.21199224615386</v>
+        <v>36.90773217391303</v>
       </c>
       <c r="B325" t="n">
-        <v>9.356172861563437</v>
+        <v>9.723519993051941</v>
       </c>
       <c r="C325" t="n">
-        <v>9.301399954101068</v>
+        <v>9.484373575174267</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>36.87741460869564</v>
+        <v>36.90591066666667</v>
       </c>
       <c r="B326" t="n">
-        <v>9.763961452543962</v>
+        <v>9.743763439130992</v>
       </c>
       <c r="C326" t="n">
-        <v>9.531650090478381</v>
+        <v>9.50458822102811</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>36.90773217391303</v>
+        <v>35.9989090909091</v>
       </c>
       <c r="B327" t="n">
-        <v>9.723519993051941</v>
+        <v>9.002040749516393</v>
       </c>
       <c r="C327" t="n">
-        <v>9.484373575174267</v>
+        <v>9.0023135468966</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>36.90591066666667</v>
+        <v>35.75250003949967</v>
       </c>
       <c r="B328" t="n">
-        <v>9.743763439130992</v>
+        <v>9.032077083487382</v>
       </c>
       <c r="C328" t="n">
-        <v>9.50458822102811</v>
+        <v>9.094602465458694</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>35.9989090909091</v>
+        <v>36.44022438502673</v>
       </c>
       <c r="B329" t="n">
-        <v>9.002040749516393</v>
+        <v>9.169491921188509</v>
       </c>
       <c r="C329" t="n">
-        <v>9.0023135468966</v>
+        <v>9.058717796985491</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>35.75250003949967</v>
+        <v>36.32178379446639</v>
       </c>
       <c r="B330" t="n">
-        <v>9.032077083487382</v>
+        <v>9.123984003244061</v>
       </c>
       <c r="C330" t="n">
-        <v>9.094602465458694</v>
+        <v>9.043152340079384</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>36.44022438502673</v>
+        <v>35.81993779591837</v>
       </c>
       <c r="B331" t="n">
-        <v>9.169491921188509</v>
+        <v>8.99918240347707</v>
       </c>
       <c r="C331" t="n">
-        <v>9.058717796985491</v>
+        <v>9.044420131910181</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>36.32178379446639</v>
+        <v>35.38243951165371</v>
       </c>
       <c r="B332" t="n">
-        <v>9.123984003244061</v>
+        <v>8.884295836920151</v>
       </c>
       <c r="C332" t="n">
-        <v>9.043152340079384</v>
+        <v>9.039361178693836</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>35.81993779591837</v>
+        <v>34.64402769230771</v>
       </c>
       <c r="B333" t="n">
-        <v>8.99918240347707</v>
+        <v>8.685155047921757</v>
       </c>
       <c r="C333" t="n">
-        <v>9.044420131910181</v>
+        <v>9.025093285980915</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>35.38243951165371</v>
+        <v>35.83064584615385</v>
       </c>
       <c r="B334" t="n">
-        <v>8.884295836920151</v>
+        <v>9.092588088463252</v>
       </c>
       <c r="C334" t="n">
-        <v>9.039361178693836</v>
+        <v>9.135564359909909</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>34.64402769230771</v>
+        <v>36.25529440613026</v>
       </c>
       <c r="B335" t="n">
-        <v>8.685155047921757</v>
+        <v>9.099183740793743</v>
       </c>
       <c r="C335" t="n">
-        <v>9.025093285980915</v>
+        <v>9.035111148157913</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>35.83064584615385</v>
+        <v>36.1695471319149</v>
       </c>
       <c r="B336" t="n">
-        <v>9.092588088463252</v>
+        <v>9.159419628021888</v>
       </c>
       <c r="C336" t="n">
-        <v>9.135564359909909</v>
+        <v>9.116484245881983</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>36.25529440613026</v>
+        <v>35.58091393939392</v>
       </c>
       <c r="B337" t="n">
-        <v>9.099183740793743</v>
+        <v>9.035615776793268</v>
       </c>
       <c r="C337" t="n">
-        <v>9.035111148157913</v>
+        <v>9.142040828929265</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>36.1695471319149</v>
+        <v>35.045976</v>
       </c>
       <c r="B338" t="n">
-        <v>9.159419628021888</v>
+        <v>8.737452529145205</v>
       </c>
       <c r="C338" t="n">
-        <v>9.116484245881983</v>
+        <v>8.975304070550848</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>35.58091393939392</v>
+        <v>35.04584711111112</v>
       </c>
       <c r="B339" t="n">
-        <v>9.035615776793268</v>
+        <v>8.686735774050264</v>
       </c>
       <c r="C339" t="n">
-        <v>9.142040828929265</v>
+        <v>8.923239517490856</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>35.045976</v>
+        <v>35.51646936585366</v>
       </c>
       <c r="B340" t="n">
-        <v>8.737452529145205</v>
+        <v>8.819652734220378</v>
       </c>
       <c r="C340" t="n">
-        <v>8.975304070550848</v>
+        <v>8.939725825821881</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>35.04584711111112</v>
+        <v>36.16255710407241</v>
       </c>
       <c r="B341" t="n">
-        <v>8.686735774050264</v>
+        <v>9.12056311616457</v>
       </c>
       <c r="C341" t="n">
-        <v>8.923239517490856</v>
+        <v>9.079564568318341</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>35.51646936585366</v>
+        <v>35.43077178236398</v>
       </c>
       <c r="B342" t="n">
-        <v>8.819652734220378</v>
+        <v>9.067136304737021</v>
       </c>
       <c r="C342" t="n">
-        <v>8.939725825821881</v>
+        <v>9.212808261010277</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>36.16255710407241</v>
+        <v>37.12553768421053</v>
       </c>
       <c r="B343" t="n">
-        <v>9.12056311616457</v>
+        <v>9.434285861963172</v>
       </c>
       <c r="C343" t="n">
-        <v>9.079564568318341</v>
+        <v>9.148265916566656</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>35.43077178236398</v>
+        <v>37.03009586538463</v>
       </c>
       <c r="B344" t="n">
-        <v>9.067136304737021</v>
+        <v>9.056823657749506</v>
       </c>
       <c r="C344" t="n">
-        <v>9.212808261010277</v>
+        <v>8.804882732798067</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>37.12553768421053</v>
+        <v>35.95512000000001</v>
       </c>
       <c r="B345" t="n">
-        <v>9.434285861963172</v>
+        <v>9.466118788509435</v>
       </c>
       <c r="C345" t="n">
-        <v>9.148265916566656</v>
+        <v>9.47793461366113</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>37.03009586538463</v>
+        <v>36.36984878718535</v>
       </c>
       <c r="B346" t="n">
-        <v>9.056823657749506</v>
+        <v>8.982839193429088</v>
       </c>
       <c r="C346" t="n">
-        <v>8.804882732798067</v>
+        <v>8.891491764392171</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>35.95512000000001</v>
+        <v>36.54871107692308</v>
       </c>
       <c r="B347" t="n">
-        <v>9.466118788509435</v>
+        <v>9.2807859127721</v>
       </c>
       <c r="C347" t="n">
-        <v>9.47793461366113</v>
+        <v>9.141452133745755</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>36.36984878718535</v>
+        <v>36.88842</v>
       </c>
       <c r="B348" t="n">
-        <v>8.982839193429088</v>
+        <v>9.205864780912043</v>
       </c>
       <c r="C348" t="n">
-        <v>8.891491764392171</v>
+        <v>8.984150910037176</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>36.54871107692308</v>
+        <v>37.43099919732442</v>
       </c>
       <c r="B349" t="n">
-        <v>9.2807859127721</v>
+        <v>9.317685294122001</v>
       </c>
       <c r="C349" t="n">
-        <v>9.141452133745755</v>
+        <v>8.961467173774222</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>36.88842</v>
+        <v>36.48891323076923</v>
       </c>
       <c r="B350" t="n">
-        <v>9.205864780912043</v>
+        <v>9.269183941000797</v>
       </c>
       <c r="C350" t="n">
-        <v>8.984150910037176</v>
+        <v>9.144986581695298</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>37.43099919732442</v>
+        <v>35.52695895652173</v>
       </c>
       <c r="B351" t="n">
-        <v>9.317685294122001</v>
+        <v>8.8505789151492</v>
       </c>
       <c r="C351" t="n">
-        <v>8.961467173774222</v>
+        <v>8.968424270011479</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>36.48891323076923</v>
+        <v>34.9018171826087</v>
       </c>
       <c r="B352" t="n">
-        <v>9.269183941000797</v>
+        <v>8.832549527252358</v>
       </c>
       <c r="C352" t="n">
-        <v>9.144986581695298</v>
+        <v>9.110464974285856</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>35.52695895652173</v>
+        <v>36.56619088235295</v>
       </c>
       <c r="B353" t="n">
-        <v>8.8505789151492</v>
+        <v>9.064161176105927</v>
       </c>
       <c r="C353" t="n">
-        <v>8.968424270011479</v>
+        <v>8.923811708735906</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>34.9018171826087</v>
+        <v>36.76861846153846</v>
       </c>
       <c r="B354" t="n">
-        <v>8.832549527252358</v>
+        <v>9.206957053841213</v>
       </c>
       <c r="C354" t="n">
-        <v>9.110464974285856</v>
+        <v>9.014493005359855</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>36.56619088235295</v>
+        <v>36.62045899665554</v>
       </c>
       <c r="B355" t="n">
-        <v>9.064161176105927</v>
+        <v>9.109794264699866</v>
       </c>
       <c r="C355" t="n">
-        <v>8.923811708735906</v>
+        <v>8.955447378721995</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>36.76861846153846</v>
+        <v>36.79943472727273</v>
       </c>
       <c r="B356" t="n">
-        <v>9.206957053841213</v>
+        <v>9.306957782698531</v>
       </c>
       <c r="C356" t="n">
-        <v>9.014493005359855</v>
+        <v>9.104772468932385</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>36.62045899665554</v>
+        <v>33.15939234782608</v>
       </c>
       <c r="B357" t="n">
-        <v>9.109794264699866</v>
+        <v>8.094840373187949</v>
       </c>
       <c r="C357" t="n">
-        <v>8.955447378721995</v>
+        <v>8.788286901580426</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>36.79943472727273</v>
+        <v>36.05011916083917</v>
       </c>
       <c r="B358" t="n">
-        <v>9.306957782698531</v>
+        <v>8.742473147597142</v>
       </c>
       <c r="C358" t="n">
-        <v>9.104772468932385</v>
+        <v>8.730318807250535</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>33.15939234782608</v>
+        <v>36.741072</v>
       </c>
       <c r="B359" t="n">
-        <v>8.094840373187949</v>
+        <v>9.009798168751205</v>
       </c>
       <c r="C359" t="n">
-        <v>8.788286901580426</v>
+        <v>8.828069417110186</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>36.05011916083917</v>
+        <v>37.14795032967033</v>
       </c>
       <c r="B360" t="n">
-        <v>8.742473147597142</v>
+        <v>9.208348873288513</v>
       </c>
       <c r="C360" t="n">
-        <v>8.730318807250535</v>
+        <v>8.923791393508315</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>36.741072</v>
+        <v>30.56546086956522</v>
       </c>
       <c r="B361" t="n">
-        <v>9.009798168751205</v>
+        <v>8.07699548653342</v>
       </c>
       <c r="C361" t="n">
-        <v>8.828069417110186</v>
+        <v>9.513085333672549</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>37.14795032967033</v>
+        <v>29.96377982608697</v>
       </c>
       <c r="B362" t="n">
-        <v>9.208348873288513</v>
+        <v>7.519865789965353</v>
       </c>
       <c r="C362" t="n">
-        <v>8.923791393508315</v>
+        <v>9.034746951486527</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>30.56546086956522</v>
+        <v>26.64263754475702</v>
       </c>
       <c r="B363" t="n">
-        <v>8.07699548653342</v>
+        <v>6.837497931814208</v>
       </c>
       <c r="C363" t="n">
-        <v>9.513085333672549</v>
+        <v>9.238947350156446</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>29.96377982608697</v>
+        <v>26.94329307692308</v>
       </c>
       <c r="B364" t="n">
-        <v>7.519865789965353</v>
+        <v>7.046031978914366</v>
       </c>
       <c r="C364" t="n">
-        <v>9.034746951486527</v>
+        <v>9.414482131665428</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>26.64263754475702</v>
+        <v>27.11010554347827</v>
       </c>
       <c r="B365" t="n">
-        <v>6.837497931814208</v>
+        <v>7.013825333326865</v>
       </c>
       <c r="C365" t="n">
-        <v>9.238947350156446</v>
+        <v>9.313785650698403</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>26.94329307692308</v>
+        <v>21.92417739130435</v>
       </c>
       <c r="B366" t="n">
-        <v>7.046031978914366</v>
+        <v>5.835189840903839</v>
       </c>
       <c r="C366" t="n">
-        <v>9.414482131665428</v>
+        <v>9.581514987917208</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>27.11010554347827</v>
+        <v>21.99171466666667</v>
       </c>
       <c r="B367" t="n">
-        <v>7.013825333326865</v>
+        <v>5.803934275393804</v>
       </c>
       <c r="C367" t="n">
-        <v>9.313785650698403</v>
+        <v>9.500925102073756</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>21.92417739130435</v>
+        <v>21.13923182608696</v>
       </c>
       <c r="B368" t="n">
-        <v>5.835189840903839</v>
+        <v>5.624437664188226</v>
       </c>
       <c r="C368" t="n">
-        <v>9.581514987917208</v>
+        <v>9.57838759594401</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>21.99171466666667</v>
+        <v>17.23730909090909</v>
       </c>
       <c r="B369" t="n">
-        <v>5.803934275393804</v>
+        <v>4.629652016818024</v>
       </c>
       <c r="C369" t="n">
-        <v>9.500925102073756</v>
+        <v>9.66899599737112</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>21.13923182608696</v>
+        <v>16.92756431818182</v>
       </c>
       <c r="B370" t="n">
-        <v>5.624437664188226</v>
+        <v>4.602857976347208</v>
       </c>
       <c r="C370" t="n">
-        <v>9.57838759594401</v>
+        <v>9.788938563979864</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>17.23730909090909</v>
+        <v>16.71327841897233</v>
       </c>
       <c r="B371" t="n">
-        <v>4.629652016818024</v>
+        <v>4.527222872782904</v>
       </c>
       <c r="C371" t="n">
-        <v>9.66899599737112</v>
+        <v>9.751529253241857</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>16.92756431818182</v>
+        <v>12.32686872727273</v>
       </c>
       <c r="B372" t="n">
-        <v>4.602857976347208</v>
+        <v>3.420637353169713</v>
       </c>
       <c r="C372" t="n">
-        <v>9.788938563979864</v>
+        <v>9.989799310644118</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>16.71327841897233</v>
+        <v>12.58187970223325</v>
       </c>
       <c r="B373" t="n">
-        <v>4.527222872782904</v>
+        <v>3.373061252905326</v>
       </c>
       <c r="C373" t="n">
-        <v>9.751529253241857</v>
+        <v>9.651197434596213</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>12.32686872727273</v>
+        <v>12.52149762237762</v>
       </c>
       <c r="B374" t="n">
-        <v>3.420637353169713</v>
+        <v>3.404921765296446</v>
       </c>
       <c r="C374" t="n">
-        <v>9.989799310644118</v>
+        <v>9.789338883202751</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>12.58187970223325</v>
+        <v>4.826122164705883</v>
       </c>
       <c r="B375" t="n">
-        <v>3.373061252905326</v>
+        <v>1.34418938534451</v>
       </c>
       <c r="C375" t="n">
-        <v>9.651197434596213</v>
+        <v>10.02685307601438</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>12.52149762237762</v>
+        <v>4.861580219780222</v>
       </c>
       <c r="B376" t="n">
-        <v>3.404921765296446</v>
+        <v>1.489946500657096</v>
       </c>
       <c r="C376" t="n">
-        <v>9.789338883202751</v>
+        <v>11.03305336923563</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>4.826122164705883</v>
+        <v>4.942021818181816</v>
       </c>
       <c r="B377" t="n">
-        <v>1.34418938534451</v>
+        <v>1.559874914239735</v>
       </c>
       <c r="C377" t="n">
-        <v>10.02685307601438</v>
+        <v>11.36285896311365</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>4.861580219780222</v>
+        <v>30.34727272727274</v>
       </c>
       <c r="B378" t="n">
-        <v>1.489946500657096</v>
+        <v>7.427659382698849</v>
       </c>
       <c r="C378" t="n">
-        <v>11.03305336923563</v>
+        <v>8.811195001943393</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>4.942021818181816</v>
+        <v>30.38727272727273</v>
       </c>
       <c r="B379" t="n">
-        <v>1.559874914239735</v>
+        <v>7.682227849515263</v>
       </c>
       <c r="C379" t="n">
-        <v>11.36285896311365</v>
+        <v>9.101185389840374</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>30.34727272727274</v>
+        <v>29.90393939393938</v>
       </c>
       <c r="B380" t="n">
-        <v>7.427659382698849</v>
+        <v>7.219363297733611</v>
       </c>
       <c r="C380" t="n">
-        <v>8.811195001943393</v>
+        <v>8.69106492274002</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>30.38727272727273</v>
+        <v>30.05393939393938</v>
       </c>
       <c r="B381" t="n">
-        <v>7.682227849515263</v>
+        <v>7.080270592856666</v>
       </c>
       <c r="C381" t="n">
-        <v>9.101185389840374</v>
+        <v>8.481075908279783</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>29.90393939393938</v>
+        <v>14.893</v>
       </c>
       <c r="B382" t="n">
-        <v>7.219363297733611</v>
+        <v>4.690639228350376</v>
       </c>
       <c r="C382" t="n">
-        <v>8.69106492274002</v>
+        <v>11.3384148405703</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>30.05393939393938</v>
+        <v>14.95166666666667</v>
       </c>
       <c r="B383" t="n">
-        <v>7.080270592856666</v>
+        <v>4.598438172023393</v>
       </c>
       <c r="C383" t="n">
-        <v>8.481075908279783</v>
+        <v>11.07192782473585</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>14.893</v>
+        <v>14.95166666666667</v>
       </c>
       <c r="B384" t="n">
-        <v>4.690639228350376</v>
+        <v>4.265882191006388</v>
       </c>
       <c r="C384" t="n">
-        <v>11.3384148405703</v>
+        <v>10.27121339045123</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>14.95166666666667</v>
+        <v>14.51</v>
       </c>
       <c r="B385" t="n">
-        <v>4.598438172023393</v>
+        <v>3.503838740142168</v>
       </c>
       <c r="C385" t="n">
-        <v>11.07192782473585</v>
+        <v>8.693190533777949</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>14.95166666666667</v>
+        <v>31.67015151515151</v>
       </c>
       <c r="B386" t="n">
-        <v>4.265882191006388</v>
+        <v>7.654627593703745</v>
       </c>
       <c r="C386" t="n">
-        <v>10.27121339045123</v>
+        <v>8.701145406314186</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>14.51</v>
+        <v>29.66484210526316</v>
       </c>
       <c r="B387" t="n">
-        <v>3.503838740142168</v>
+        <v>8.875819466219067</v>
       </c>
       <c r="C387" t="n">
-        <v>8.693190533777949</v>
+        <v>10.77131978825517</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>31.67015151515151</v>
+        <v>29.50484210526316</v>
       </c>
       <c r="B388" t="n">
-        <v>7.654627593703745</v>
+        <v>7.326569092248476</v>
       </c>
       <c r="C388" t="n">
-        <v>8.701145406314186</v>
+        <v>8.939430564649436</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>29.66484210526316</v>
+        <v>29.648</v>
       </c>
       <c r="B389" t="n">
-        <v>8.875819466219067</v>
+        <v>7.264640816385572</v>
       </c>
       <c r="C389" t="n">
-        <v>10.77131978825517</v>
+        <v>8.821069528800614</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>29.50484210526316</v>
+        <v>29.648</v>
       </c>
       <c r="B390" t="n">
-        <v>7.326569092248476</v>
+        <v>5.688599943082769</v>
       </c>
       <c r="C390" t="n">
-        <v>8.939430564649436</v>
+        <v>6.907366363700071</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>29.648</v>
+        <v>29.65942857142857</v>
       </c>
       <c r="B391" t="n">
-        <v>7.264640816385572</v>
+        <v>6.742769444341868</v>
       </c>
       <c r="C391" t="n">
-        <v>8.821069528800614</v>
+        <v>8.18423387395071</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>29.648</v>
+        <v>29.65942857142857</v>
       </c>
       <c r="B392" t="n">
-        <v>5.688599943082769</v>
+        <v>6.751959585327827</v>
       </c>
       <c r="C392" t="n">
-        <v>6.907366363700071</v>
+        <v>8.195388676704166</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>29.65942857142857</v>
+        <v>27.0646103631171</v>
       </c>
       <c r="B393" t="n">
-        <v>6.742769444341868</v>
+        <v>6.676816507329874</v>
       </c>
       <c r="C393" t="n">
-        <v>8.18423387395071</v>
+        <v>8.881169580458426</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>29.65942857142857</v>
+        <v>27.04732081459931</v>
       </c>
       <c r="B394" t="n">
-        <v>6.751959585327827</v>
+        <v>7.192321006568656</v>
       </c>
       <c r="C394" t="n">
-        <v>8.195388676704166</v>
+        <v>9.572983513276949</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>27.0646103631171</v>
+        <v>27.0855077086656</v>
       </c>
       <c r="B395" t="n">
-        <v>6.676816507329874</v>
+        <v>7.029168156586184</v>
       </c>
       <c r="C395" t="n">
-        <v>8.881169580458426</v>
+        <v>9.342636525736715</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>27.04732081459931</v>
+        <v>27.07396679618509</v>
       </c>
       <c r="B396" t="n">
-        <v>7.192321006568656</v>
+        <v>6.72577192703075</v>
       </c>
       <c r="C396" t="n">
-        <v>9.572983513276949</v>
+        <v>8.943195919381289</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>27.0855077086656</v>
+        <v>27.0935519703782</v>
       </c>
       <c r="B397" t="n">
-        <v>7.029168156586184</v>
+        <v>6.346785772404718</v>
       </c>
       <c r="C397" t="n">
-        <v>9.342636525736715</v>
+        <v>8.433161073024873</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>27.07396679618509</v>
+        <v>30.34249999999999</v>
       </c>
       <c r="B398" t="n">
-        <v>6.72577192703075</v>
+        <v>9.068508852246591</v>
       </c>
       <c r="C398" t="n">
-        <v>8.943195919381289</v>
+        <v>10.75937443127222</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>27.0935519703782</v>
+        <v>30.23916666666667</v>
       </c>
       <c r="B399" t="n">
-        <v>6.346785772404718</v>
+        <v>9.431608697715571</v>
       </c>
       <c r="C399" t="n">
-        <v>8.433161073024873</v>
+        <v>11.22841501753555</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>30.34249999999999</v>
+        <v>30.23916666666667</v>
       </c>
       <c r="B400" t="n">
-        <v>9.068508852246591</v>
+        <v>9.687354061137283</v>
       </c>
       <c r="C400" t="n">
-        <v>10.75937443127222</v>
+        <v>11.5328821738124</v>
       </c>
     </row>
     <row r="401">
@@ -4844,2441 +4844,2441 @@
         <v>30.23916666666667</v>
       </c>
       <c r="B401" t="n">
-        <v>9.431608697715571</v>
+        <v>9.383035912749492</v>
       </c>
       <c r="C401" t="n">
-        <v>11.22841501753555</v>
+        <v>11.17058867998947</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>30.23916666666667</v>
+        <v>26.8603125</v>
       </c>
       <c r="B402" t="n">
-        <v>9.687354061137283</v>
+        <v>5.980998043750062</v>
       </c>
       <c r="C402" t="n">
-        <v>11.5328821738124</v>
+        <v>8.016136430840193</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>30.23916666666667</v>
+        <v>26.15776278893521</v>
       </c>
       <c r="B403" t="n">
-        <v>9.383035912749492</v>
+        <v>5.841497460594144</v>
       </c>
       <c r="C403" t="n">
-        <v>11.17058867998947</v>
+        <v>8.039445509091623</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>26.8603125</v>
+        <v>26.10457032158079</v>
       </c>
       <c r="B404" t="n">
-        <v>5.980998043750062</v>
+        <v>5.318183466724676</v>
       </c>
       <c r="C404" t="n">
-        <v>8.016136430840193</v>
+        <v>7.334141203765065</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>26.15776278893521</v>
+        <v>26.31799961912018</v>
       </c>
       <c r="B405" t="n">
-        <v>5.841497460594144</v>
+        <v>5.897365292837198</v>
       </c>
       <c r="C405" t="n">
-        <v>8.039445509091623</v>
+        <v>8.066918216227124</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>26.10457032158079</v>
+        <v>26.2810401284109</v>
       </c>
       <c r="B406" t="n">
-        <v>5.318183466724676</v>
+        <v>5.901274689820315</v>
       </c>
       <c r="C406" t="n">
-        <v>7.334141203765065</v>
+        <v>8.08361799211548</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>26.31799961912018</v>
+        <v>26.47207843137256</v>
       </c>
       <c r="B407" t="n">
-        <v>5.897365292837198</v>
+        <v>6.482963891559829</v>
       </c>
       <c r="C407" t="n">
-        <v>8.066918216227124</v>
+        <v>8.816334565538416</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>26.2810401284109</v>
+        <v>26.52320879120879</v>
       </c>
       <c r="B408" t="n">
-        <v>5.901274689820315</v>
+        <v>5.983121982950271</v>
       </c>
       <c r="C408" t="n">
-        <v>8.08361799211548</v>
+        <v>8.120902454970015</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>26.47207843137256</v>
+        <v>26.7084221824687</v>
       </c>
       <c r="B409" t="n">
-        <v>6.482963891559829</v>
+        <v>6.024905990497246</v>
       </c>
       <c r="C409" t="n">
-        <v>8.816334565538416</v>
+        <v>8.120907112224357</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>26.52320879120879</v>
+        <v>26.57223529411765</v>
       </c>
       <c r="B410" t="n">
-        <v>5.983121982950271</v>
+        <v>5.63067621411703</v>
       </c>
       <c r="C410" t="n">
-        <v>8.120902454970015</v>
+        <v>7.628426493464256</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>26.7084221824687</v>
+        <v>26.6377540106952</v>
       </c>
       <c r="B411" t="n">
-        <v>6.024905990497246</v>
+        <v>5.621742696193348</v>
       </c>
       <c r="C411" t="n">
-        <v>8.120907112224357</v>
+        <v>7.597590133976866</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>26.57223529411765</v>
+        <v>30.20746428571428</v>
       </c>
       <c r="B412" t="n">
-        <v>5.63067621411703</v>
+        <v>7.417073703015781</v>
       </c>
       <c r="C412" t="n">
-        <v>7.628426493464256</v>
+        <v>8.839360059587811</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>26.6377540106952</v>
+        <v>29.93036904761904</v>
       </c>
       <c r="B413" t="n">
-        <v>5.621742696193348</v>
+        <v>7.773632465889923</v>
       </c>
       <c r="C413" t="n">
-        <v>7.597590133976866</v>
+        <v>9.350060746888763</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>30.20746428571428</v>
+        <v>29.93036904761904</v>
       </c>
       <c r="B414" t="n">
-        <v>7.417073703015781</v>
+        <v>7.413050865315554</v>
       </c>
       <c r="C414" t="n">
-        <v>8.839360059587811</v>
+        <v>8.916356184140986</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>29.93036904761904</v>
+        <v>29.85920238095238</v>
       </c>
       <c r="B415" t="n">
-        <v>7.773632465889923</v>
+        <v>8.07440044501937</v>
       </c>
       <c r="C415" t="n">
-        <v>9.350060746888763</v>
+        <v>9.734969216931436</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>29.93036904761904</v>
+        <v>26.16803571428571</v>
       </c>
       <c r="B416" t="n">
-        <v>7.413050865315554</v>
+        <v>6.65769271428437</v>
       </c>
       <c r="C416" t="n">
-        <v>8.916356184140986</v>
+        <v>9.159148983559067</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>29.85920238095238</v>
+        <v>26.11170238095238</v>
       </c>
       <c r="B417" t="n">
-        <v>8.07440044501937</v>
+        <v>6.792606192108606</v>
       </c>
       <c r="C417" t="n">
-        <v>9.734969216931436</v>
+        <v>9.364913070328539</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>26.16803571428571</v>
+        <v>26.58573571428571</v>
       </c>
       <c r="B418" t="n">
-        <v>6.65769271428437</v>
+        <v>7.540158866976</v>
       </c>
       <c r="C418" t="n">
-        <v>9.159148983559067</v>
+        <v>10.2102015204069</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>26.11170238095238</v>
+        <v>26.67817857142857</v>
       </c>
       <c r="B419" t="n">
-        <v>6.792606192108606</v>
+        <v>6.975781206020981</v>
       </c>
       <c r="C419" t="n">
-        <v>9.364913070328539</v>
+        <v>9.413240965622183</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>26.58573571428571</v>
+        <v>26.70953571428571</v>
       </c>
       <c r="B420" t="n">
-        <v>7.540158866976</v>
+        <v>7.153670829459832</v>
       </c>
       <c r="C420" t="n">
-        <v>10.2102015204069</v>
+        <v>9.6419553157119</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>26.67817857142857</v>
+        <v>26.61936904761904</v>
       </c>
       <c r="B421" t="n">
-        <v>6.975781206020981</v>
+        <v>7.033996900910767</v>
       </c>
       <c r="C421" t="n">
-        <v>9.413240965622183</v>
+        <v>9.512768239540113</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>26.70953571428571</v>
+        <v>26.75520238095239</v>
       </c>
       <c r="B422" t="n">
-        <v>7.153670829459832</v>
+        <v>7.21691247111109</v>
       </c>
       <c r="C422" t="n">
-        <v>9.6419553157119</v>
+        <v>9.710591804192923</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>26.61936904761904</v>
+        <v>26.29126666666667</v>
       </c>
       <c r="B423" t="n">
-        <v>7.033996900910767</v>
+        <v>7.005414709788854</v>
       </c>
       <c r="C423" t="n">
-        <v>9.512768239540113</v>
+        <v>9.592346110586739</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>26.75520238095239</v>
+        <v>26.67276666666666</v>
       </c>
       <c r="B424" t="n">
-        <v>7.21691247111109</v>
+        <v>7.183232922184839</v>
       </c>
       <c r="C424" t="n">
-        <v>9.710591804192923</v>
+        <v>9.695146680146452</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>26.29126666666667</v>
+        <v>26.53485</v>
       </c>
       <c r="B425" t="n">
-        <v>7.005414709788854</v>
+        <v>6.596716438677991</v>
       </c>
       <c r="C425" t="n">
-        <v>9.592346110586739</v>
+        <v>8.949807207970185</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>26.67276666666666</v>
+        <v>36.24583928571428</v>
       </c>
       <c r="B426" t="n">
-        <v>7.183232922184839</v>
+        <v>10.38035249772626</v>
       </c>
       <c r="C426" t="n">
-        <v>9.695146680146452</v>
+        <v>10.30994721828473</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>26.53485</v>
+        <v>36.30112105263158</v>
       </c>
       <c r="B427" t="n">
-        <v>6.596716438677991</v>
+        <v>11.04689301291064</v>
       </c>
       <c r="C427" t="n">
-        <v>8.949807207970185</v>
+        <v>10.9552580452871</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>36.24583928571428</v>
+        <v>35.69408333333333</v>
       </c>
       <c r="B428" t="n">
-        <v>10.38035249772626</v>
+        <v>11.0117680920646</v>
       </c>
       <c r="C428" t="n">
-        <v>10.30994721828473</v>
+        <v>11.10614461260365</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>36.30112105263158</v>
+        <v>35.85454285714286</v>
       </c>
       <c r="B429" t="n">
-        <v>11.04689301291064</v>
+        <v>10.23086144910326</v>
       </c>
       <c r="C429" t="n">
-        <v>10.9552580452871</v>
+        <v>10.27236670218327</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>35.69408333333333</v>
+        <v>36.1711492248062</v>
       </c>
       <c r="B430" t="n">
-        <v>11.0117680920646</v>
+        <v>10.83074275459945</v>
       </c>
       <c r="C430" t="n">
-        <v>11.10614461260365</v>
+        <v>10.7794954686754</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>35.85454285714286</v>
+        <v>31.23834957983194</v>
       </c>
       <c r="B431" t="n">
-        <v>10.23086144910326</v>
+        <v>7.945566437540988</v>
       </c>
       <c r="C431" t="n">
-        <v>10.27236670218327</v>
+        <v>9.156706279263505</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>36.1711492248062</v>
+        <v>33.79472552552552</v>
       </c>
       <c r="B432" t="n">
-        <v>10.83074275459945</v>
+        <v>9.486681478809883</v>
       </c>
       <c r="C432" t="n">
-        <v>10.7794954686754</v>
+        <v>10.10573478335256</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>31.23834957983194</v>
+        <v>34.69292158688768</v>
       </c>
       <c r="B433" t="n">
-        <v>7.945566437540988</v>
+        <v>8.392945976383071</v>
       </c>
       <c r="C433" t="n">
-        <v>9.156706279263505</v>
+        <v>8.709155681601281</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>33.79472552552552</v>
+        <v>34.64068837209303</v>
       </c>
       <c r="B434" t="n">
-        <v>9.486681478809883</v>
+        <v>9.533813366885312</v>
       </c>
       <c r="C434" t="n">
-        <v>10.10573478335256</v>
+        <v>9.907923235277602</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>34.69292158688768</v>
+        <v>36.1625306122449</v>
       </c>
       <c r="B435" t="n">
-        <v>8.392945976383071</v>
+        <v>10.22696600424556</v>
       </c>
       <c r="C435" t="n">
-        <v>8.709155681601281</v>
+        <v>10.18100143766418</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>34.64068837209303</v>
+        <v>35.88828571428571</v>
       </c>
       <c r="B436" t="n">
-        <v>9.533813366885312</v>
+        <v>7.429723582780717</v>
       </c>
       <c r="C436" t="n">
-        <v>9.907923235277602</v>
+        <v>7.452851080976446</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>36.1625306122449</v>
+        <v>35.57791452991453</v>
       </c>
       <c r="B437" t="n">
-        <v>10.22696600424556</v>
+        <v>7.80776290958592</v>
       </c>
       <c r="C437" t="n">
-        <v>10.18100143766418</v>
+        <v>7.900391814949035</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>35.88828571428571</v>
+        <v>35.35000809716599</v>
       </c>
       <c r="B438" t="n">
-        <v>7.429723582780717</v>
+        <v>7.715254869483516</v>
       </c>
       <c r="C438" t="n">
-        <v>7.452851080976446</v>
+        <v>7.857117727893073</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>35.57791452991453</v>
+        <v>34.9104962406015</v>
       </c>
       <c r="B439" t="n">
-        <v>7.80776290958592</v>
+        <v>7.668046605383963</v>
       </c>
       <c r="C439" t="n">
-        <v>7.900391814949035</v>
+        <v>7.907354736274764</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>35.35000809716599</v>
+        <v>34.63950464396285</v>
       </c>
       <c r="B440" t="n">
-        <v>7.715254869483516</v>
+        <v>7.544072185908882</v>
       </c>
       <c r="C440" t="n">
-        <v>7.857117727893073</v>
+        <v>7.840371895735329</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>34.9104962406015</v>
+        <v>34.76489192886456</v>
       </c>
       <c r="B441" t="n">
-        <v>7.668046605383963</v>
+        <v>8.011870734272289</v>
       </c>
       <c r="C441" t="n">
-        <v>7.907354736274764</v>
+        <v>8.296512096858475</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>34.63950464396285</v>
+        <v>34.53715837104073</v>
       </c>
       <c r="B442" t="n">
-        <v>7.544072185908882</v>
+        <v>7.324477495778349</v>
       </c>
       <c r="C442" t="n">
-        <v>7.840371895735329</v>
+        <v>7.634710042303775</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>34.76489192886456</v>
+        <v>34.54864516129033</v>
       </c>
       <c r="B443" t="n">
-        <v>8.011870734272289</v>
+        <v>8.31202898060916</v>
       </c>
       <c r="C443" t="n">
-        <v>8.296512096858475</v>
+        <v>8.661209199520284</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>34.53715837104073</v>
+        <v>34.32748872180451</v>
       </c>
       <c r="B444" t="n">
-        <v>7.324477495778349</v>
+        <v>7.775287249365218</v>
       </c>
       <c r="C444" t="n">
-        <v>7.634710042303775</v>
+        <v>8.154116464667318</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>34.54864516129033</v>
+        <v>33.98881578947369</v>
       </c>
       <c r="B445" t="n">
-        <v>8.31202898060916</v>
+        <v>7.467070836794722</v>
       </c>
       <c r="C445" t="n">
-        <v>8.661209199520284</v>
+        <v>7.908911913543679</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>34.32748872180451</v>
+        <v>30.63777777777777</v>
       </c>
       <c r="B446" t="n">
-        <v>7.775287249365218</v>
+        <v>7.583413707393902</v>
       </c>
       <c r="C446" t="n">
-        <v>8.154116464667318</v>
+        <v>8.910662367431728</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>33.98881578947369</v>
+        <v>35.94222222222222</v>
       </c>
       <c r="B447" t="n">
-        <v>7.467070836794722</v>
+        <v>8.529864745784582</v>
       </c>
       <c r="C447" t="n">
-        <v>7.908911913543679</v>
+        <v>8.543576658940907</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>30.63777777777777</v>
+        <v>36.24666666666666</v>
       </c>
       <c r="B448" t="n">
-        <v>7.583413707393902</v>
+        <v>8.522655183582732</v>
       </c>
       <c r="C448" t="n">
-        <v>8.910662367431728</v>
+        <v>8.464656610510714</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>35.94222222222222</v>
+        <v>37.27794871794871</v>
       </c>
       <c r="B449" t="n">
-        <v>8.529864745784582</v>
+        <v>8.834225658835066</v>
       </c>
       <c r="C449" t="n">
-        <v>8.543576658940907</v>
+        <v>8.531374033596844</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>36.24666666666666</v>
+        <v>35.91795000000002</v>
       </c>
       <c r="B450" t="n">
-        <v>8.522655183582732</v>
+        <v>9.830833252517014</v>
       </c>
       <c r="C450" t="n">
-        <v>8.464656610510714</v>
+        <v>9.853290543881604</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>37.27794871794871</v>
+        <v>35.54641685779816</v>
       </c>
       <c r="B451" t="n">
-        <v>8.834225658835066</v>
+        <v>9.736909580133531</v>
       </c>
       <c r="C451" t="n">
-        <v>8.531374033596844</v>
+        <v>9.861155522006101</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>35.91795000000002</v>
+        <v>35.2328375</v>
       </c>
       <c r="B452" t="n">
-        <v>9.830833252517014</v>
+        <v>9.656340882499675</v>
       </c>
       <c r="C452" t="n">
-        <v>9.853290543881604</v>
+        <v>9.866598787849215</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>35.54641685779816</v>
+        <v>33.18506666666666</v>
       </c>
       <c r="B453" t="n">
-        <v>9.736909580133531</v>
+        <v>8.114552304824279</v>
       </c>
       <c r="C453" t="n">
-        <v>9.861155522006101</v>
+        <v>8.802871662364421</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>35.2328375</v>
+        <v>37.9436</v>
       </c>
       <c r="B454" t="n">
-        <v>9.656340882499675</v>
+        <v>9.499294201062382</v>
       </c>
       <c r="C454" t="n">
-        <v>9.866598787849215</v>
+        <v>9.012708104614369</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>33.18506666666666</v>
+        <v>235.1931918461538</v>
       </c>
       <c r="B455" t="n">
-        <v>8.114552304824279</v>
+        <v>72.5089950148699</v>
       </c>
       <c r="C455" t="n">
-        <v>8.802871662364421</v>
+        <v>11.09863682722075</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>37.9436</v>
+        <v>253.9067621538462</v>
       </c>
       <c r="B456" t="n">
-        <v>9.499294201062382</v>
+        <v>72.21438687542525</v>
       </c>
       <c r="C456" t="n">
-        <v>9.012708104614369</v>
+        <v>10.23886841556468</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>235.1931918461538</v>
+        <v>243.906192</v>
       </c>
       <c r="B457" t="n">
-        <v>72.5089950148699</v>
+        <v>62.48296107649478</v>
       </c>
       <c r="C457" t="n">
-        <v>11.09863682722075</v>
+        <v>9.222343148852129</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>253.9067621538462</v>
+        <v>243.415404</v>
       </c>
       <c r="B458" t="n">
-        <v>72.21438687542525</v>
+        <v>60.6229740805105</v>
       </c>
       <c r="C458" t="n">
-        <v>10.23886841556468</v>
+        <v>8.965854383227029</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>243.906192</v>
+        <v>180.205524</v>
       </c>
       <c r="B459" t="n">
-        <v>62.48296107649478</v>
+        <v>38.91869400021496</v>
       </c>
       <c r="C459" t="n">
-        <v>9.222343148852129</v>
+        <v>7.774861463224283</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>243.415404</v>
+        <v>182.592816</v>
       </c>
       <c r="B460" t="n">
-        <v>60.6229740805105</v>
+        <v>39.88992079192986</v>
       </c>
       <c r="C460" t="n">
-        <v>8.965854383227029</v>
+        <v>7.864696870163145</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>180.205524</v>
+        <v>179.2583416666667</v>
       </c>
       <c r="B461" t="n">
-        <v>38.91869400021496</v>
+        <v>38.50479458667542</v>
       </c>
       <c r="C461" t="n">
-        <v>7.774861463224283</v>
+        <v>7.732820644396689</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>182.592816</v>
+        <v>117.4299018461539</v>
       </c>
       <c r="B462" t="n">
-        <v>39.88992079192986</v>
+        <v>28.30087863779922</v>
       </c>
       <c r="C462" t="n">
-        <v>7.864696870163145</v>
+        <v>8.676083475702416</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>179.2583416666667</v>
+        <v>113.2784818300654</v>
       </c>
       <c r="B463" t="n">
-        <v>38.50479458667542</v>
+        <v>26.18603660119338</v>
       </c>
       <c r="C463" t="n">
-        <v>7.732820644396689</v>
+        <v>8.321945195709352</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>117.4299018461539</v>
+        <v>113.7012026666667</v>
       </c>
       <c r="B464" t="n">
-        <v>28.30087863779922</v>
+        <v>25.88185252057762</v>
       </c>
       <c r="C464" t="n">
-        <v>8.676083475702416</v>
+        <v>8.194695120968591</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>113.2784818300654</v>
+        <v>55.54755909502263</v>
       </c>
       <c r="B465" t="n">
-        <v>26.18603660119338</v>
+        <v>12.41675255945839</v>
       </c>
       <c r="C465" t="n">
-        <v>8.321945195709352</v>
+        <v>8.04721394464579</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>113.7012026666667</v>
+        <v>62.74221734265735</v>
       </c>
       <c r="B466" t="n">
-        <v>25.88185252057762</v>
+        <v>14.14550566781526</v>
       </c>
       <c r="C466" t="n">
-        <v>8.194695120968591</v>
+        <v>8.11635650777562</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>55.54755909502263</v>
+        <v>62.20960846153847</v>
       </c>
       <c r="B467" t="n">
-        <v>12.41675255945839</v>
+        <v>14.08009199225234</v>
       </c>
       <c r="C467" t="n">
-        <v>8.04721394464579</v>
+        <v>8.147990708452513</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>62.74221734265735</v>
+        <v>59.53736653846153</v>
       </c>
       <c r="B468" t="n">
-        <v>14.14550566781526</v>
+        <v>13.4455653123963</v>
       </c>
       <c r="C468" t="n">
-        <v>8.11635650777562</v>
+        <v>8.130026223675404</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>62.20960846153847</v>
+        <v>36.38020654545455</v>
       </c>
       <c r="B469" t="n">
-        <v>14.08009199225234</v>
+        <v>8.307626038240542</v>
       </c>
       <c r="C469" t="n">
-        <v>8.147990708452513</v>
+        <v>8.220803722018086</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>59.53736653846153</v>
+        <v>38.207604</v>
       </c>
       <c r="B470" t="n">
-        <v>13.4455653123963</v>
+        <v>8.860235340544277</v>
       </c>
       <c r="C470" t="n">
-        <v>8.130026223675404</v>
+        <v>8.348298214658891</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>36.38020654545455</v>
+        <v>39.11597599999999</v>
       </c>
       <c r="B471" t="n">
-        <v>8.307626038240542</v>
+        <v>9.073104265910819</v>
       </c>
       <c r="C471" t="n">
-        <v>8.220803722018086</v>
+        <v>8.350341394339479</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>38.207604</v>
+        <v>40.60210386554622</v>
       </c>
       <c r="B472" t="n">
-        <v>8.860235340544277</v>
+        <v>9.224834811147719</v>
       </c>
       <c r="C472" t="n">
-        <v>8.348298214658891</v>
+        <v>8.179232640285012</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>39.11597599999999</v>
+        <v>35.83575176470588</v>
       </c>
       <c r="B473" t="n">
-        <v>9.073104265910819</v>
+        <v>8.289938094406535</v>
       </c>
       <c r="C473" t="n">
-        <v>8.350341394339479</v>
+        <v>8.327933884522617</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>40.60210386554622</v>
+        <v>35.29483384615385</v>
       </c>
       <c r="B474" t="n">
-        <v>9.224834811147719</v>
+        <v>8.101694979662025</v>
       </c>
       <c r="C474" t="n">
-        <v>8.179232640285012</v>
+        <v>8.263561192528911</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>35.83575176470588</v>
+        <v>36.22374</v>
       </c>
       <c r="B475" t="n">
-        <v>8.289938094406535</v>
+        <v>8.707045404618182</v>
       </c>
       <c r="C475" t="n">
-        <v>8.327933884522617</v>
+        <v>8.653265360403276</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>35.29483384615385</v>
+        <v>35.30248061538462</v>
       </c>
       <c r="B476" t="n">
-        <v>8.101694979662025</v>
+        <v>8.548857521800683</v>
       </c>
       <c r="C476" t="n">
-        <v>8.263561192528911</v>
+        <v>8.717768990168498</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>36.22374</v>
+        <v>36.31069786561265</v>
       </c>
       <c r="B477" t="n">
-        <v>8.707045404618182</v>
+        <v>8.640694246147511</v>
       </c>
       <c r="C477" t="n">
-        <v>8.653265360403276</v>
+        <v>8.566758865736332</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>35.30248061538462</v>
+        <v>107.4262867058823</v>
       </c>
       <c r="B478" t="n">
-        <v>8.548857521800683</v>
+        <v>25.41197550107378</v>
       </c>
       <c r="C478" t="n">
-        <v>8.717768990168498</v>
+        <v>8.515896305187683</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>36.31069786561265</v>
+        <v>134.1924414782609</v>
       </c>
       <c r="B479" t="n">
-        <v>8.640694246147511</v>
+        <v>34.23784198428194</v>
       </c>
       <c r="C479" t="n">
-        <v>8.566758865736332</v>
+        <v>9.185035295999324</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>107.4262867058823</v>
+        <v>113.7832547593583</v>
       </c>
       <c r="B480" t="n">
-        <v>25.41197550107378</v>
+        <v>29.05784800571484</v>
       </c>
       <c r="C480" t="n">
-        <v>8.515896305187683</v>
+        <v>9.193642161301398</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>134.1924414782609</v>
+        <v>71.70887515151516</v>
       </c>
       <c r="B481" t="n">
-        <v>34.23784198428194</v>
+        <v>18.06440468820148</v>
       </c>
       <c r="C481" t="n">
-        <v>9.185035295999324</v>
+        <v>9.068871424927277</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>113.7832547593583</v>
+        <v>62.97261622377623</v>
       </c>
       <c r="B482" t="n">
-        <v>29.05784800571484</v>
+        <v>15.58537222860883</v>
       </c>
       <c r="C482" t="n">
-        <v>9.193642161301398</v>
+        <v>8.909799749086439</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>71.70887515151516</v>
+        <v>41.87015076923076</v>
       </c>
       <c r="B483" t="n">
-        <v>18.06440468820148</v>
+        <v>10.9482317471931</v>
       </c>
       <c r="C483" t="n">
-        <v>9.068871424927277</v>
+        <v>9.413301257768383</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>62.97261622377623</v>
+        <v>35.43940800000001</v>
       </c>
       <c r="B484" t="n">
-        <v>15.58537222860883</v>
+        <v>9.231415476236123</v>
       </c>
       <c r="C484" t="n">
-        <v>8.909799749086439</v>
+        <v>9.377440987290203</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>41.87015076923076</v>
+        <v>34.18963615384615</v>
       </c>
       <c r="B485" t="n">
-        <v>10.9482317471931</v>
+        <v>9.118525375417541</v>
       </c>
       <c r="C485" t="n">
-        <v>9.413301257768383</v>
+        <v>9.601357324713828</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>35.43940800000001</v>
+        <v>33.5773245</v>
       </c>
       <c r="B486" t="n">
-        <v>9.231415476236123</v>
+        <v>8.843085816107678</v>
       </c>
       <c r="C486" t="n">
-        <v>9.377440987290203</v>
+        <v>9.481133298154127</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>34.18963615384615</v>
+        <v>35.97013318681319</v>
       </c>
       <c r="B487" t="n">
-        <v>9.118525375417541</v>
+        <v>9.419258576297121</v>
       </c>
       <c r="C487" t="n">
-        <v>9.601357324713828</v>
+        <v>9.427079599221766</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>33.5773245</v>
+        <v>36.84068307692307</v>
       </c>
       <c r="B488" t="n">
-        <v>8.843085816107678</v>
+        <v>9.308696815425172</v>
       </c>
       <c r="C488" t="n">
-        <v>9.481133298154127</v>
+        <v>9.096277738813708</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>35.97013318681319</v>
+        <v>37.09798220095693</v>
       </c>
       <c r="B489" t="n">
-        <v>9.419258576297121</v>
+        <v>9.970567699675165</v>
       </c>
       <c r="C489" t="n">
-        <v>9.427079599221766</v>
+        <v>9.675470629209778</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>36.84068307692307</v>
+        <v>63.29302588235294</v>
       </c>
       <c r="B490" t="n">
-        <v>9.308696815425172</v>
+        <v>16.83709933353441</v>
       </c>
       <c r="C490" t="n">
-        <v>9.096277738813708</v>
+        <v>9.576656630920194</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>37.09798220095693</v>
+        <v>42.94059854545455</v>
       </c>
       <c r="B491" t="n">
-        <v>9.970567699675165</v>
+        <v>11.2628105546214</v>
       </c>
       <c r="C491" t="n">
-        <v>9.675470629209778</v>
+        <v>9.442373737226125</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>63.29302588235294</v>
+        <v>36.10244333333333</v>
       </c>
       <c r="B492" t="n">
-        <v>16.83709933353441</v>
+        <v>9.871678996262942</v>
       </c>
       <c r="C492" t="n">
-        <v>9.576656630920194</v>
+        <v>9.843667382405217</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>42.94059854545455</v>
+        <v>35.01656672727273</v>
       </c>
       <c r="B493" t="n">
-        <v>11.2628105546214</v>
+        <v>9.487410302442864</v>
       </c>
       <c r="C493" t="n">
-        <v>9.442373737226125</v>
+        <v>9.753862323170839</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>36.10244333333333</v>
+        <v>35.74878615384615</v>
       </c>
       <c r="B494" t="n">
-        <v>9.871678996262942</v>
+        <v>9.621322749823243</v>
       </c>
       <c r="C494" t="n">
-        <v>9.843667382405217</v>
+        <v>9.688933702616685</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>35.01656672727273</v>
+        <v>36.1956915</v>
       </c>
       <c r="B495" t="n">
-        <v>9.487410302442864</v>
+        <v>9.903837615572341</v>
       </c>
       <c r="C495" t="n">
-        <v>9.753862323170839</v>
+        <v>9.85029265598101</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>35.74878615384615</v>
+        <v>36.42357910931175</v>
       </c>
       <c r="B496" t="n">
-        <v>9.621322749823243</v>
+        <v>9.907360393923351</v>
       </c>
       <c r="C496" t="n">
-        <v>9.688933702616685</v>
+        <v>9.792145168129801</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>36.1956915</v>
+        <v>36.03495157894736</v>
       </c>
       <c r="B497" t="n">
-        <v>9.903837615572341</v>
+        <v>9.95472726851877</v>
       </c>
       <c r="C497" t="n">
-        <v>9.85029265598101</v>
+        <v>9.945071825101207</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>36.42357910931175</v>
+        <v>112.815828</v>
       </c>
       <c r="B498" t="n">
-        <v>9.907360393923351</v>
+        <v>30.33350225310717</v>
       </c>
       <c r="C498" t="n">
-        <v>9.792145168129801</v>
+        <v>9.679546748634047</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>36.03495157894736</v>
+        <v>105.33786</v>
       </c>
       <c r="B499" t="n">
-        <v>9.95472726851877</v>
+        <v>26.80570180799139</v>
       </c>
       <c r="C499" t="n">
-        <v>9.945071825101207</v>
+        <v>9.161048696904324</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>112.815828</v>
+        <v>52.92472747252749</v>
       </c>
       <c r="B500" t="n">
-        <v>30.33350225310717</v>
+        <v>14.17159345542659</v>
       </c>
       <c r="C500" t="n">
-        <v>9.679546748634047</v>
+        <v>9.639678629619462</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>105.33786</v>
+        <v>35.88714070588235</v>
       </c>
       <c r="B501" t="n">
-        <v>26.80570180799139</v>
+        <v>10.04488808408194</v>
       </c>
       <c r="C501" t="n">
-        <v>9.161048696904324</v>
+        <v>10.07647764391763</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>52.92472747252749</v>
+        <v>35.368998</v>
       </c>
       <c r="B502" t="n">
-        <v>14.17159345542659</v>
+        <v>9.888648378410204</v>
       </c>
       <c r="C502" t="n">
-        <v>9.639678629619462</v>
+        <v>10.06506719875885</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>35.88714070588235</v>
+        <v>35.15170153846154</v>
       </c>
       <c r="B503" t="n">
-        <v>10.04488808408194</v>
+        <v>9.359692049111084</v>
       </c>
       <c r="C503" t="n">
-        <v>10.07647764391763</v>
+        <v>9.585564823919647</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>35.368998</v>
+        <v>34.58646461538462</v>
       </c>
       <c r="B504" t="n">
-        <v>9.888648378410204</v>
+        <v>9.560432134941395</v>
       </c>
       <c r="C504" t="n">
-        <v>10.06506719875885</v>
+        <v>9.951163285558691</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>35.15170153846154</v>
+        <v>36.95483611285266</v>
       </c>
       <c r="B505" t="n">
-        <v>9.359692049111084</v>
+        <v>10.17286096889483</v>
       </c>
       <c r="C505" t="n">
-        <v>9.585564823919647</v>
+        <v>9.910015397222772</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>34.58646461538462</v>
+        <v>37.45478545454544</v>
       </c>
       <c r="B506" t="n">
-        <v>9.560432134941395</v>
+        <v>10.22974566166117</v>
       </c>
       <c r="C506" t="n">
-        <v>9.951163285558691</v>
+        <v>9.83241098168163</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>36.95483611285266</v>
+        <v>33.88132727272728</v>
       </c>
       <c r="B507" t="n">
-        <v>10.17286096889483</v>
+        <v>10.76376015023526</v>
       </c>
       <c r="C507" t="n">
-        <v>9.910015397222772</v>
+        <v>11.43684136956415</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>37.45478545454544</v>
+        <v>34.932426</v>
       </c>
       <c r="B508" t="n">
-        <v>10.22974566166117</v>
+        <v>9.328975123704527</v>
       </c>
       <c r="C508" t="n">
-        <v>9.83241098168163</v>
+        <v>9.614079035145254</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>33.88132727272728</v>
+        <v>34.92734685314686</v>
       </c>
       <c r="B509" t="n">
-        <v>10.76376015023526</v>
+        <v>9.490601865113296</v>
       </c>
       <c r="C509" t="n">
-        <v>11.43684136956415</v>
+        <v>9.782067575318733</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>34.932426</v>
+        <v>34.89032295454546</v>
       </c>
       <c r="B510" t="n">
-        <v>9.328975123704527</v>
+        <v>9.482314923152643</v>
       </c>
       <c r="C510" t="n">
-        <v>9.614079035145254</v>
+        <v>9.78389731955814</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>34.92734685314686</v>
+        <v>36.55601261538461</v>
       </c>
       <c r="B511" t="n">
-        <v>9.490601865113296</v>
+        <v>9.844929679064194</v>
       </c>
       <c r="C511" t="n">
-        <v>9.782067575318733</v>
+        <v>9.695189466510751</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>34.89032295454546</v>
+        <v>37.02989400000001</v>
       </c>
       <c r="B512" t="n">
-        <v>9.482314923152643</v>
+        <v>11.88579899233653</v>
       </c>
       <c r="C512" t="n">
-        <v>9.78389731955814</v>
+        <v>11.55522518439062</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>36.55601261538461</v>
+        <v>36.15549818181817</v>
       </c>
       <c r="B513" t="n">
-        <v>9.844929679064194</v>
+        <v>9.495150201924259</v>
       </c>
       <c r="C513" t="n">
-        <v>9.695189466510751</v>
+        <v>9.454313298362184</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>37.02989400000001</v>
+        <v>37.30043090909091</v>
       </c>
       <c r="B514" t="n">
-        <v>11.88579899233653</v>
+        <v>9.830240674868248</v>
       </c>
       <c r="C514" t="n">
-        <v>11.55522518439062</v>
+        <v>9.487522145729601</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>36.15549818181817</v>
+        <v>37.48112120300753</v>
       </c>
       <c r="B515" t="n">
-        <v>9.495150201924259</v>
+        <v>10.65357179970447</v>
       </c>
       <c r="C515" t="n">
-        <v>9.454313298362184</v>
+        <v>10.2325803625796</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>37.30043090909091</v>
+        <v>35.93843318181818</v>
       </c>
       <c r="B516" t="n">
-        <v>9.830240674868248</v>
+        <v>9.704466978134143</v>
       </c>
       <c r="C516" t="n">
-        <v>9.487522145729601</v>
+        <v>9.721091886375733</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>37.48112120300753</v>
+        <v>35.728326993007</v>
       </c>
       <c r="B517" t="n">
-        <v>10.65357179970447</v>
+        <v>9.332686510583612</v>
       </c>
       <c r="C517" t="n">
-        <v>10.2325803625796</v>
+        <v>9.403650902735237</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>35.93843318181818</v>
+        <v>35.6763223880597</v>
       </c>
       <c r="B518" t="n">
-        <v>9.704466978134143</v>
+        <v>9.870454111382269</v>
       </c>
       <c r="C518" t="n">
-        <v>9.721091886375733</v>
+        <v>9.960004961965675</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>35.728326993007</v>
+        <v>35.63410641148325</v>
       </c>
       <c r="B519" t="n">
-        <v>9.332686510583612</v>
+        <v>10.88221016260792</v>
       </c>
       <c r="C519" t="n">
-        <v>9.403650902735237</v>
+        <v>10.99394948564331</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>35.6763223880597</v>
+        <v>35.57992717948719</v>
       </c>
       <c r="B520" t="n">
-        <v>9.870454111382269</v>
+        <v>10.14124561256246</v>
       </c>
       <c r="C520" t="n">
-        <v>9.960004961965675</v>
+        <v>10.26097777577044</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>35.63410641148325</v>
+        <v>34.97238800000001</v>
       </c>
       <c r="B521" t="n">
-        <v>10.88221016260792</v>
+        <v>9.303050971406098</v>
       </c>
       <c r="C521" t="n">
-        <v>10.99394948564331</v>
+        <v>9.576407392329612</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>35.57992717948719</v>
+        <v>34.62356265734265</v>
       </c>
       <c r="B522" t="n">
-        <v>10.14124561256246</v>
+        <v>9.517156345037753</v>
       </c>
       <c r="C522" t="n">
-        <v>10.26097777577044</v>
+        <v>9.895504740864668</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>34.97238800000001</v>
+        <v>35.34511036363638</v>
       </c>
       <c r="B523" t="n">
-        <v>9.303050971406098</v>
+        <v>8.164358782260678</v>
       </c>
       <c r="C523" t="n">
-        <v>9.576407392329612</v>
+        <v>8.315631586307646</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>34.62356265734265</v>
+        <v>38.55283799999999</v>
       </c>
       <c r="B524" t="n">
-        <v>9.517156345037753</v>
+        <v>9.227329129214736</v>
       </c>
       <c r="C524" t="n">
-        <v>9.895504740864668</v>
+        <v>8.616326731944625</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>35.34511036363638</v>
+        <v>34.52200235294119</v>
       </c>
       <c r="B525" t="n">
-        <v>8.164358782260678</v>
+        <v>7.638262282207205</v>
       </c>
       <c r="C525" t="n">
-        <v>8.315631586307646</v>
+        <v>7.965280789572509</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>38.55283799999999</v>
+        <v>37.03646113636362</v>
       </c>
       <c r="B526" t="n">
-        <v>9.227329129214736</v>
+        <v>9.26882844154699</v>
       </c>
       <c r="C526" t="n">
-        <v>8.616326731944625</v>
+        <v>9.00944133585365</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>34.52200235294119</v>
+        <v>37.89050625</v>
       </c>
       <c r="B527" t="n">
-        <v>7.638262282207205</v>
+        <v>9.607807169627932</v>
       </c>
       <c r="C527" t="n">
-        <v>7.965280789572509</v>
+        <v>9.128435915437407</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>37.03646113636362</v>
+        <v>40.16576363636363</v>
       </c>
       <c r="B528" t="n">
-        <v>9.26882844154699</v>
+        <v>10.3547364739559</v>
       </c>
       <c r="C528" t="n">
-        <v>9.00944133585365</v>
+        <v>9.280802337962491</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>37.89050625</v>
+        <v>35.56096772727273</v>
       </c>
       <c r="B529" t="n">
-        <v>9.607807169627932</v>
+        <v>8.958701367003007</v>
       </c>
       <c r="C529" t="n">
-        <v>9.128435915437407</v>
+        <v>9.06930462875912</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>40.16576363636363</v>
+        <v>36.10888039270687</v>
       </c>
       <c r="B530" t="n">
-        <v>10.3547364739559</v>
+        <v>8.721095093843967</v>
       </c>
       <c r="C530" t="n">
-        <v>9.280802337962491</v>
+        <v>8.694798065292414</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>35.56096772727273</v>
+        <v>36.31503529411764</v>
       </c>
       <c r="B531" t="n">
-        <v>8.958701367003007</v>
+        <v>8.748429989373012</v>
       </c>
       <c r="C531" t="n">
-        <v>9.06930462875912</v>
+        <v>8.672536789973694</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>36.10888039270687</v>
+        <v>36.3527625</v>
       </c>
       <c r="B532" t="n">
-        <v>8.721095093843967</v>
+        <v>9.102577823079518</v>
       </c>
       <c r="C532" t="n">
-        <v>8.694798065292414</v>
+        <v>9.014247586572345</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>36.31503529411764</v>
+        <v>36.90366308300395</v>
       </c>
       <c r="B533" t="n">
-        <v>8.748429989373012</v>
+        <v>9.058479023524718</v>
       </c>
       <c r="C533" t="n">
-        <v>8.672536789973694</v>
+        <v>8.836663290400519</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>36.3527625</v>
+        <v>36.65023505016722</v>
       </c>
       <c r="B534" t="n">
-        <v>9.102577823079518</v>
+        <v>8.904747457945685</v>
       </c>
       <c r="C534" t="n">
-        <v>9.014247586572345</v>
+        <v>8.746762689168131</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>36.90366308300395</v>
+        <v>35.91365191304347</v>
       </c>
       <c r="B535" t="n">
-        <v>9.058479023524718</v>
+        <v>8.00937662972445</v>
       </c>
       <c r="C535" t="n">
-        <v>8.836663290400519</v>
+        <v>8.028633773257653</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>36.65023505016722</v>
+        <v>34.8242328</v>
       </c>
       <c r="B536" t="n">
-        <v>8.904747457945685</v>
+        <v>7.883030338463107</v>
       </c>
       <c r="C536" t="n">
-        <v>8.746762689168131</v>
+        <v>8.149184328467729</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>35.91365191304347</v>
+        <v>35.66028923076924</v>
       </c>
       <c r="B537" t="n">
-        <v>8.00937662972445</v>
+        <v>8.61680761695766</v>
       </c>
       <c r="C537" t="n">
-        <v>8.028633773257653</v>
+        <v>8.698893949037783</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>34.8242328</v>
+        <v>35.84198425263158</v>
       </c>
       <c r="B538" t="n">
-        <v>7.883030338463107</v>
+        <v>8.701272545153987</v>
       </c>
       <c r="C538" t="n">
-        <v>8.149184328467729</v>
+        <v>8.739633649120432</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>35.66028923076924</v>
+        <v>36.29968545454545</v>
       </c>
       <c r="B539" t="n">
-        <v>8.61680761695766</v>
+        <v>8.933868136279958</v>
       </c>
       <c r="C539" t="n">
-        <v>8.698893949037783</v>
+        <v>8.860111289636679</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>35.84198425263158</v>
+        <v>36.60001263157895</v>
       </c>
       <c r="B540" t="n">
-        <v>8.701272545153987</v>
+        <v>9.35907589966474</v>
       </c>
       <c r="C540" t="n">
-        <v>8.739633649120432</v>
+        <v>9.205645248800435</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>36.29968545454545</v>
+        <v>37.06826599999999</v>
       </c>
       <c r="B541" t="n">
-        <v>8.933868136279958</v>
+        <v>9.402972638720117</v>
       </c>
       <c r="C541" t="n">
-        <v>8.860111289636679</v>
+        <v>9.131989475685867</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>36.60001263157895</v>
+        <v>35.41086305555556</v>
       </c>
       <c r="B542" t="n">
-        <v>9.35907589966474</v>
+        <v>8.438073752157697</v>
       </c>
       <c r="C542" t="n">
-        <v>9.205645248800435</v>
+        <v>8.578459513994222</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>37.06826599999999</v>
+        <v>35.52841054945054</v>
       </c>
       <c r="B543" t="n">
-        <v>9.402972638720117</v>
+        <v>8.522904740612919</v>
       </c>
       <c r="C543" t="n">
-        <v>9.131989475685867</v>
+        <v>8.636034258695826</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>35.41086305555556</v>
+        <v>35.774103</v>
       </c>
       <c r="B544" t="n">
-        <v>8.438073752157697</v>
+        <v>7.985032898455726</v>
       </c>
       <c r="C544" t="n">
-        <v>8.578459513994222</v>
+        <v>8.035454707121691</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>35.52841054945054</v>
+        <v>36.39578439560439</v>
       </c>
       <c r="B545" t="n">
-        <v>8.522904740612919</v>
+        <v>8.975716870961786</v>
       </c>
       <c r="C545" t="n">
-        <v>8.636034258695826</v>
+        <v>8.878110823011937</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>35.774103</v>
+        <v>36.10251291866028</v>
       </c>
       <c r="B546" t="n">
-        <v>7.985032898455726</v>
+        <v>9.075681892638917</v>
       </c>
       <c r="C546" t="n">
-        <v>8.035454707121691</v>
+        <v>9.04991153582905</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>36.39578439560439</v>
+        <v>36.3834105</v>
       </c>
       <c r="B547" t="n">
-        <v>8.975716870961786</v>
+        <v>8.61392366940944</v>
       </c>
       <c r="C547" t="n">
-        <v>8.878110823011937</v>
+        <v>8.523149639826642</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>36.10251291866028</v>
+        <v>36.368796</v>
       </c>
       <c r="B548" t="n">
-        <v>9.075681892638917</v>
+        <v>7.854100541150594</v>
       </c>
       <c r="C548" t="n">
-        <v>9.04991153582905</v>
+        <v>7.774456418117921</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>36.3834105</v>
+        <v>36.37751710144927</v>
       </c>
       <c r="B549" t="n">
-        <v>8.61392366940944</v>
+        <v>8.648596804037116</v>
       </c>
       <c r="C549" t="n">
-        <v>8.523149639826642</v>
+        <v>8.55884375167903</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>36.368796</v>
+        <v>36.79428469565217</v>
       </c>
       <c r="B550" t="n">
-        <v>7.854100541150594</v>
+        <v>8.482034399442799</v>
       </c>
       <c r="C550" t="n">
-        <v>7.774456418117921</v>
+        <v>8.298931230915411</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>36.37751710144927</v>
+        <v>36.96823707692307</v>
       </c>
       <c r="B551" t="n">
-        <v>8.648596804037116</v>
+        <v>8.388148683993903</v>
       </c>
       <c r="C551" t="n">
-        <v>8.55884375167903</v>
+        <v>8.168454232627807</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>36.79428469565217</v>
+        <v>35.78066769230769</v>
       </c>
       <c r="B552" t="n">
-        <v>8.482034399442799</v>
+        <v>8.214160805670065</v>
       </c>
       <c r="C552" t="n">
-        <v>8.298931230915411</v>
+        <v>8.26451288016896</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>36.96823707692307</v>
+        <v>35.6992402122016</v>
       </c>
       <c r="B553" t="n">
-        <v>8.388148683993903</v>
+        <v>8.010380593231634</v>
       </c>
       <c r="C553" t="n">
-        <v>8.168454232627807</v>
+        <v>8.077866633637091</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>35.78066769230769</v>
+        <v>35.57277122171946</v>
       </c>
       <c r="B554" t="n">
-        <v>8.214160805670065</v>
+        <v>8.365961262178635</v>
       </c>
       <c r="C554" t="n">
-        <v>8.26451288016896</v>
+        <v>8.466436408939218</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>35.6992402122016</v>
+        <v>35.74243179487179</v>
       </c>
       <c r="B555" t="n">
-        <v>8.010380593231634</v>
+        <v>8.298691504056031</v>
       </c>
       <c r="C555" t="n">
-        <v>8.077866633637091</v>
+        <v>8.358493788575437</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>35.57277122171946</v>
+        <v>35.8869</v>
       </c>
       <c r="B556" t="n">
-        <v>8.365961262178635</v>
+        <v>8.086184138414231</v>
       </c>
       <c r="C556" t="n">
-        <v>8.466436408939218</v>
+        <v>8.111668296311811</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>35.74243179487179</v>
+        <v>36.10787197324414</v>
       </c>
       <c r="B557" t="n">
-        <v>8.298691504056031</v>
+        <v>8.359355637741402</v>
       </c>
       <c r="C557" t="n">
-        <v>8.358493788575437</v>
+        <v>8.334382130901648</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>35.8869</v>
+        <v>35.96444</v>
       </c>
       <c r="B558" t="n">
-        <v>8.086184138414231</v>
+        <v>8.293933600652636</v>
       </c>
       <c r="C558" t="n">
-        <v>8.111668296311811</v>
+        <v>8.302134264387124</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>36.10787197324414</v>
+        <v>35.93438361359572</v>
       </c>
       <c r="B559" t="n">
-        <v>8.359355637741402</v>
+        <v>8.316567368010466</v>
       </c>
       <c r="C559" t="n">
-        <v>8.334382130901648</v>
+        <v>8.331753466757688</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>35.96444</v>
+        <v>35.06503300699301</v>
       </c>
       <c r="B560" t="n">
-        <v>8.293933600652636</v>
+        <v>8.085240538303182</v>
       </c>
       <c r="C560" t="n">
-        <v>8.302134264387124</v>
+        <v>8.300823767109154</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>35.93438361359572</v>
+        <v>35.76295913978495</v>
       </c>
       <c r="B561" t="n">
-        <v>8.316567368010466</v>
+        <v>8.340790685488006</v>
       </c>
       <c r="C561" t="n">
-        <v>8.331753466757688</v>
+        <v>8.396074371360697</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>35.06503300699301</v>
+        <v>35.55400000000001</v>
       </c>
       <c r="B562" t="n">
-        <v>8.085240538303182</v>
+        <v>8.488887839049852</v>
       </c>
       <c r="C562" t="n">
-        <v>8.300823767109154</v>
+        <v>8.595374984693553</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>35.76295913978495</v>
+        <v>36.02551476923077</v>
       </c>
       <c r="B563" t="n">
-        <v>8.340790685488006</v>
+        <v>8.652711013588339</v>
       </c>
       <c r="C563" t="n">
-        <v>8.396074371360697</v>
+        <v>8.646582803453207</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>35.55400000000001</v>
+        <v>36.21507692307692</v>
       </c>
       <c r="B564" t="n">
-        <v>8.488887839049852</v>
+        <v>8.230852245748947</v>
       </c>
       <c r="C564" t="n">
-        <v>8.595374984693553</v>
+        <v>8.181970218545841</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>36.02551476923077</v>
+        <v>41.62716848484848</v>
       </c>
       <c r="B565" t="n">
-        <v>8.652711013588339</v>
+        <v>10.08659429069663</v>
       </c>
       <c r="C565" t="n">
-        <v>8.646582803453207</v>
+        <v>8.723086572588922</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>36.21507692307692</v>
+        <v>37.61745230769232</v>
       </c>
       <c r="B566" t="n">
-        <v>8.230852245748947</v>
+        <v>8.86866579087039</v>
       </c>
       <c r="C566" t="n">
-        <v>8.181970218545841</v>
+        <v>8.487336299647458</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>41.62716848484848</v>
+        <v>36.20563151515152</v>
       </c>
       <c r="B567" t="n">
-        <v>10.08659429069663</v>
+        <v>8.33201249885426</v>
       </c>
       <c r="C567" t="n">
-        <v>8.723086572588922</v>
+        <v>8.284690458533438</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>37.61745230769232</v>
+        <v>36.73444307692308</v>
       </c>
       <c r="B568" t="n">
-        <v>8.86866579087039</v>
+        <v>8.956251521881478</v>
       </c>
       <c r="C568" t="n">
-        <v>8.487336299647458</v>
+        <v>8.777186416371279</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>36.20563151515152</v>
+        <v>36.68826884615385</v>
       </c>
       <c r="B569" t="n">
-        <v>8.33201249885426</v>
+        <v>8.418526017856502</v>
       </c>
       <c r="C569" t="n">
-        <v>8.284690458533438</v>
+        <v>8.260595175904726</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>36.73444307692308</v>
+        <v>36.766645</v>
       </c>
       <c r="B570" t="n">
-        <v>8.956251521881478</v>
+        <v>10.01794426161962</v>
       </c>
       <c r="C570" t="n">
-        <v>8.777186416371279</v>
+        <v>9.8090536522521</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>36.68826884615385</v>
+        <v>36.77230103386809</v>
       </c>
       <c r="B571" t="n">
-        <v>8.418526017856502</v>
+        <v>9.335892203632259</v>
       </c>
       <c r="C571" t="n">
-        <v>8.260595175904726</v>
+        <v>9.139817468077757</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>36.766645</v>
+        <v>37.31336280701755</v>
       </c>
       <c r="B572" t="n">
-        <v>10.01794426161962</v>
+        <v>9.009372962032053</v>
       </c>
       <c r="C572" t="n">
-        <v>9.8090536522521</v>
+        <v>8.692259347156872</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>36.77230103386809</v>
+        <v>37.72945739750446</v>
       </c>
       <c r="B573" t="n">
-        <v>9.335892203632259</v>
+        <v>8.845976061771575</v>
       </c>
       <c r="C573" t="n">
-        <v>9.139817468077757</v>
+        <v>8.4404908045362</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>37.31336280701755</v>
+        <v>37.22771285024155</v>
       </c>
       <c r="B574" t="n">
-        <v>9.009372962032053</v>
+        <v>8.344960165834165</v>
       </c>
       <c r="C574" t="n">
-        <v>8.692259347156872</v>
+        <v>8.069756183479338</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>37.72945739750446</v>
+        <v>36.20804999999999</v>
       </c>
       <c r="B575" t="n">
-        <v>8.845976061771575</v>
+        <v>8.497793267541535</v>
       </c>
       <c r="C575" t="n">
-        <v>8.4404908045362</v>
+        <v>8.448965288975666</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>37.22771285024155</v>
+        <v>35.97412923076924</v>
       </c>
       <c r="B576" t="n">
-        <v>8.344960165834165</v>
+        <v>8.049804307610559</v>
       </c>
       <c r="C576" t="n">
-        <v>8.069756183479338</v>
+        <v>8.055593318603961</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>36.20804999999999</v>
+        <v>36.26655</v>
       </c>
       <c r="B577" t="n">
-        <v>8.497793267541535</v>
+        <v>8.189902613334441</v>
       </c>
       <c r="C577" t="n">
-        <v>8.448965288975666</v>
+        <v>8.129708893733753</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>35.97412923076924</v>
+        <v>35.93258114285712</v>
       </c>
       <c r="B578" t="n">
-        <v>8.049804307610559</v>
+        <v>8.124180436731143</v>
       </c>
       <c r="C578" t="n">
-        <v>8.055593318603961</v>
+        <v>8.139423509809843</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>36.26655</v>
+        <v>35.85667130434783</v>
       </c>
       <c r="B579" t="n">
-        <v>8.189902613334441</v>
+        <v>8.188945973952892</v>
       </c>
       <c r="C579" t="n">
-        <v>8.129708893733753</v>
+        <v>8.221679378993489</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>35.93258114285712</v>
+        <v>35.62819760683761</v>
       </c>
       <c r="B580" t="n">
-        <v>8.124180436731143</v>
+        <v>7.83376332564704</v>
       </c>
       <c r="C580" t="n">
-        <v>8.139423509809843</v>
+        <v>7.9155135164393</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>35.85667130434783</v>
+        <v>37.00709470085469</v>
       </c>
       <c r="B581" t="n">
-        <v>8.188945973952892</v>
+        <v>8.375162866616655</v>
       </c>
       <c r="C581" t="n">
-        <v>8.221679378993489</v>
+        <v>8.14724489007877</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>35.62819760683761</v>
+        <v>37.18678038461538</v>
       </c>
       <c r="B582" t="n">
-        <v>7.83376332564704</v>
+        <v>10.05594019001251</v>
       </c>
       <c r="C582" t="n">
-        <v>7.9155135164393</v>
+        <v>9.735014515809487</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>37.00709470085469</v>
+        <v>36.28598800000001</v>
       </c>
       <c r="B583" t="n">
-        <v>8.375162866616655</v>
+        <v>9.697066708953383</v>
       </c>
       <c r="C583" t="n">
-        <v>8.14724489007877</v>
+        <v>9.6206392815409</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>37.18678038461538</v>
+        <v>36.45456657894736</v>
       </c>
       <c r="B584" t="n">
-        <v>10.05594019001251</v>
+        <v>9.659091132473677</v>
       </c>
       <c r="C584" t="n">
-        <v>9.735014515809487</v>
+        <v>9.538648059797975</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>36.28598800000001</v>
+        <v>36.53023272727273</v>
       </c>
       <c r="B585" t="n">
-        <v>9.697066708953383</v>
+        <v>7.804571764266396</v>
       </c>
       <c r="C585" t="n">
-        <v>9.6206392815409</v>
+        <v>7.691289174400135</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>36.45456657894736</v>
+        <v>36.39638769230769</v>
       </c>
       <c r="B586" t="n">
-        <v>9.659091132473677</v>
+        <v>7.992265083208576</v>
       </c>
       <c r="C586" t="n">
-        <v>9.538648059797975</v>
+        <v>7.905222502515494</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>36.53023272727273</v>
+        <v>36.61827636363635</v>
       </c>
       <c r="B587" t="n">
-        <v>7.804571764266396</v>
+        <v>10.79404592697802</v>
       </c>
       <c r="C587" t="n">
-        <v>7.691289174400135</v>
+        <v>10.61179530987133</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>36.39638769230769</v>
+        <v>36.40968388888889</v>
       </c>
       <c r="B588" t="n">
-        <v>7.992265083208576</v>
+        <v>9.835454701143675</v>
       </c>
       <c r="C588" t="n">
-        <v>7.905222502515494</v>
+        <v>9.724785590605622</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>36.61827636363635</v>
+        <v>36.44602499999999</v>
       </c>
       <c r="B589" t="n">
-        <v>10.79404592697802</v>
+        <v>10.989593485493</v>
       </c>
       <c r="C589" t="n">
-        <v>10.61179530987133</v>
+        <v>10.85510327882802</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>36.40968388888889</v>
+        <v>36.74904223776223</v>
       </c>
       <c r="B590" t="n">
-        <v>9.835454701143675</v>
+        <v>10.46136612619458</v>
       </c>
       <c r="C590" t="n">
-        <v>9.724785590605622</v>
+        <v>10.24813594069705</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>36.44602499999999</v>
+        <v>36.73471661538461</v>
       </c>
       <c r="B591" t="n">
-        <v>10.989593485493</v>
+        <v>9.136320209135077</v>
       </c>
       <c r="C591" t="n">
-        <v>10.85510327882802</v>
+        <v>8.95358826291082</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>36.74904223776223</v>
+        <v>36.79088258064517</v>
       </c>
       <c r="B592" t="n">
-        <v>10.46136612619458</v>
+        <v>10.2100884209463</v>
       </c>
       <c r="C592" t="n">
-        <v>10.24813594069705</v>
+        <v>9.990605209004503</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>36.73471661538461</v>
+        <v>35.85739519999999</v>
       </c>
       <c r="B593" t="n">
-        <v>9.136320209135077</v>
+        <v>8.105323849376228</v>
       </c>
       <c r="C593" t="n">
-        <v>8.95358826291082</v>
+        <v>8.137558708602022</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>36.79088258064517</v>
+        <v>35.77960682274247</v>
       </c>
       <c r="B594" t="n">
-        <v>10.2100884209463</v>
+        <v>8.814419883299419</v>
       </c>
       <c r="C594" t="n">
-        <v>9.990605209004503</v>
+        <v>8.868714443141467</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>35.85739519999999</v>
+        <v>35.85307826086957</v>
       </c>
       <c r="B595" t="n">
-        <v>8.105323849376228</v>
+        <v>8.890529116377191</v>
       </c>
       <c r="C595" t="n">
-        <v>8.137558708602022</v>
+        <v>8.926961469272076</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>35.77960682274247</v>
+        <v>35.66018461538461</v>
       </c>
       <c r="B596" t="n">
-        <v>8.814419883299419</v>
+        <v>8.71499610111846</v>
       </c>
       <c r="C596" t="n">
-        <v>8.868714443141467</v>
+        <v>8.798043617107639</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>35.85307826086957</v>
+        <v>35.75364559139784</v>
       </c>
       <c r="B597" t="n">
-        <v>8.890529116377191</v>
+        <v>8.990722236107771</v>
       </c>
       <c r="C597" t="n">
-        <v>8.926961469272076</v>
+        <v>9.052671277184453</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>35.66018461538461</v>
+        <v>35.95634666666667</v>
       </c>
       <c r="B598" t="n">
-        <v>8.71499610111846</v>
+        <v>8.880949458592587</v>
       </c>
       <c r="C598" t="n">
-        <v>8.798043617107639</v>
+        <v>8.891731506352512</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>35.75364559139784</v>
+        <v>36.13209333333333</v>
       </c>
       <c r="B599" t="n">
-        <v>8.990722236107771</v>
+        <v>8.933488020475714</v>
       </c>
       <c r="C599" t="n">
-        <v>9.052671277184453</v>
+        <v>8.900828572819817</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>35.95634666666667</v>
+        <v>35.7774187826087</v>
       </c>
       <c r="B600" t="n">
-        <v>8.880949458592587</v>
+        <v>8.713953903096758</v>
       </c>
       <c r="C600" t="n">
-        <v>8.891731506352512</v>
+        <v>8.768165820390964</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>36.13209333333333</v>
+        <v>37.08280727272726</v>
       </c>
       <c r="B601" t="n">
-        <v>8.933488020475714</v>
+        <v>9.460886092663571</v>
       </c>
       <c r="C601" t="n">
-        <v>8.900828572819817</v>
+        <v>9.184630948541445</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>35.7774187826087</v>
+        <v>37.25637928571428</v>
       </c>
       <c r="B602" t="n">
-        <v>8.713953903096758</v>
+        <v>9.552210772157776</v>
       </c>
       <c r="C602" t="n">
-        <v>8.768165820390964</v>
+        <v>9.230086078964156</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>37.08280727272726</v>
+        <v>36.28845333333334</v>
       </c>
       <c r="B603" t="n">
-        <v>9.460886092663571</v>
+        <v>9.023331241989347</v>
       </c>
       <c r="C603" t="n">
-        <v>9.184630948541445</v>
+        <v>8.951605672684583</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>37.25637928571428</v>
+        <v>36.82493818181819</v>
       </c>
       <c r="B604" t="n">
-        <v>9.552210772157776</v>
+        <v>9.138611815851934</v>
       </c>
       <c r="C604" t="n">
-        <v>9.230086078964156</v>
+        <v>8.933892128924304</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>36.28845333333334</v>
+        <v>37.06970636363637</v>
       </c>
       <c r="B605" t="n">
-        <v>9.023331241989347</v>
+        <v>9.056233926897225</v>
       </c>
       <c r="C605" t="n">
-        <v>8.951605672684583</v>
+        <v>8.794901642061957</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>36.82493818181819</v>
+        <v>34.87163428571428</v>
       </c>
       <c r="B606" t="n">
-        <v>9.138611815851934</v>
+        <v>8.6277709061916</v>
       </c>
       <c r="C606" t="n">
-        <v>8.933892128924304</v>
+        <v>8.906945687662816</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>37.06970636363637</v>
+        <v>36.147325</v>
       </c>
       <c r="B607" t="n">
-        <v>9.056233926897225</v>
+        <v>8.792695247901376</v>
       </c>
       <c r="C607" t="n">
-        <v>8.794901642061957</v>
+        <v>8.756859018598183</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>34.87163428571428</v>
+        <v>36.25894666666667</v>
       </c>
       <c r="B608" t="n">
-        <v>8.6277709061916</v>
+        <v>8.691009544794365</v>
       </c>
       <c r="C608" t="n">
-        <v>8.906945687662816</v>
+        <v>8.628941885403099</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>36.147325</v>
+        <v>36.46225684210525</v>
       </c>
       <c r="B609" t="n">
-        <v>8.792695247901376</v>
+        <v>8.820034423138248</v>
       </c>
       <c r="C609" t="n">
-        <v>8.756859018598183</v>
+        <v>8.708216844831044</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>36.25894666666667</v>
+        <v>35.47777333333332</v>
       </c>
       <c r="B610" t="n">
-        <v>8.691009544794365</v>
+        <v>8.369158042242017</v>
       </c>
       <c r="C610" t="n">
-        <v>8.628941885403099</v>
+        <v>8.492350596243151</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>36.46225684210525</v>
+        <v>35.83032</v>
       </c>
       <c r="B611" t="n">
-        <v>8.820034423138248</v>
+        <v>8.72471038655415</v>
       </c>
       <c r="C611" t="n">
-        <v>8.708216844831044</v>
+        <v>8.766027596626248</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>35.47777333333332</v>
+        <v>36.21478338461538</v>
       </c>
       <c r="B612" t="n">
-        <v>8.369158042242017</v>
+        <v>8.765803217412591</v>
       </c>
       <c r="C612" t="n">
-        <v>8.492350596243151</v>
+        <v>8.713814810802155</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>35.83032</v>
+        <v>36.3243843137255</v>
       </c>
       <c r="B613" t="n">
-        <v>8.72471038655415</v>
+        <v>8.634078274425072</v>
       </c>
       <c r="C613" t="n">
-        <v>8.766027596626248</v>
+        <v>8.556974158041101</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>36.21478338461538</v>
+        <v>36.29648698752229</v>
       </c>
       <c r="B614" t="n">
-        <v>8.765803217412591</v>
+        <v>9.043945160228905</v>
       </c>
       <c r="C614" t="n">
-        <v>8.713814810802155</v>
+        <v>8.970069910076051</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>36.3243843137255</v>
+        <v>36.28551515151516</v>
       </c>
       <c r="B615" t="n">
-        <v>8.634078274425072</v>
+        <v>8.668560313894844</v>
       </c>
       <c r="C615" t="n">
-        <v>8.556974158041101</v>
+        <v>8.600351131770648</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>36.29648698752229</v>
+        <v>36.10089230769231</v>
       </c>
       <c r="B616" t="n">
-        <v>9.043945160228905</v>
+        <v>8.356230849097937</v>
       </c>
       <c r="C616" t="n">
-        <v>8.970069910076051</v>
+        <v>8.332877425952894</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>36.28551515151516</v>
+        <v>36.39749922077923</v>
       </c>
       <c r="B617" t="n">
-        <v>8.668560313894844</v>
+        <v>8.321337073533879</v>
       </c>
       <c r="C617" t="n">
-        <v>8.600351131770648</v>
+        <v>8.230459263975945</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>36.10089230769231</v>
+        <v>36.37940685714286</v>
       </c>
       <c r="B618" t="n">
-        <v>8.356230849097937</v>
+        <v>8.340304815953706</v>
       </c>
       <c r="C618" t="n">
-        <v>8.332877425952894</v>
+        <v>8.253322396194623</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>36.39749922077923</v>
+        <v>36.73564499999999</v>
       </c>
       <c r="B619" t="n">
-        <v>8.321337073533879</v>
+        <v>8.395200335579194</v>
       </c>
       <c r="C619" t="n">
-        <v>8.230459263975945</v>
+        <v>8.227083315968756</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>36.37940685714286</v>
+        <v>35.73922796352583</v>
       </c>
       <c r="B620" t="n">
-        <v>8.340304815953706</v>
+        <v>10.09771593832872</v>
       </c>
       <c r="C620" t="n">
-        <v>8.253322396194623</v>
+        <v>10.17139413729997</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>36.73564499999999</v>
+        <v>35.22375177304965</v>
       </c>
       <c r="B621" t="n">
-        <v>8.395200335579194</v>
+        <v>12.05042592111768</v>
       </c>
       <c r="C621" t="n">
-        <v>8.227083315968756</v>
+        <v>12.31598882354595</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>35.73922796352583</v>
+        <v>35.41958510638297</v>
       </c>
       <c r="B622" t="n">
-        <v>10.09771593832872</v>
+        <v>11.45614060256896</v>
       </c>
       <c r="C622" t="n">
-        <v>10.17139413729997</v>
+        <v>11.64387048729602</v>
       </c>
     </row>
     <row r="623">
@@ -7286,625 +7286,603 @@
         <v>35.22375177304965</v>
       </c>
       <c r="B623" t="n">
-        <v>12.05042592111768</v>
+        <v>11.64753622736564</v>
       </c>
       <c r="C623" t="n">
-        <v>12.31598882354595</v>
+        <v>11.90422039329683</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>35.41958510638297</v>
+        <v>35.7654375</v>
       </c>
       <c r="B624" t="n">
-        <v>11.45614060256896</v>
+        <v>12.33528185602833</v>
       </c>
       <c r="C624" t="n">
-        <v>11.64387048729602</v>
+        <v>12.41618103558834</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>35.22375177304965</v>
+        <v>47.41430113636363</v>
       </c>
       <c r="B625" t="n">
-        <v>11.64753622736564</v>
+        <v>15.47217471080443</v>
       </c>
       <c r="C625" t="n">
-        <v>11.90422039329683</v>
+        <v>11.74747441678052</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>35.7654375</v>
+        <v>48.8529375</v>
       </c>
       <c r="B626" t="n">
-        <v>12.33528185602833</v>
+        <v>16.81184496988778</v>
       </c>
       <c r="C626" t="n">
-        <v>12.41618103558834</v>
+        <v>12.3887415964692</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>47.41430113636363</v>
+        <v>48.89460416666665</v>
       </c>
       <c r="B627" t="n">
-        <v>15.47217471080443</v>
+        <v>16.47360695695385</v>
       </c>
       <c r="C627" t="n">
-        <v>11.74747441678052</v>
+        <v>12.12914718419264</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>48.8529375</v>
+        <v>48.27339204545454</v>
       </c>
       <c r="B628" t="n">
-        <v>16.81184496988778</v>
+        <v>16.0669893404439</v>
       </c>
       <c r="C628" t="n">
-        <v>12.3887415964692</v>
+        <v>11.98199653571774</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>48.89460416666665</v>
+        <v>48.4675855263158</v>
       </c>
       <c r="B629" t="n">
-        <v>16.47360695695385</v>
+        <v>16.43883854417511</v>
       </c>
       <c r="C629" t="n">
-        <v>12.12914718419264</v>
+        <v>12.21018503735828</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>48.27339204545454</v>
+        <v>11.28980357142857</v>
       </c>
       <c r="B630" t="n">
-        <v>16.0669893404439</v>
+        <v>3.543529858440569</v>
       </c>
       <c r="C630" t="n">
-        <v>11.98199653571774</v>
+        <v>11.29931748562022</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>48.4675855263158</v>
+        <v>11.42004166666667</v>
       </c>
       <c r="B631" t="n">
-        <v>16.43883854417511</v>
+        <v>3.393776498588299</v>
       </c>
       <c r="C631" t="n">
-        <v>12.21018503735828</v>
+        <v>10.69838075160369</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>11.28980357142857</v>
+        <v>11.463375</v>
       </c>
       <c r="B632" t="n">
-        <v>3.543529858440569</v>
+        <v>3.412764620378153</v>
       </c>
       <c r="C632" t="n">
-        <v>11.29931748562022</v>
+        <v>10.71757020368029</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>11.42004166666667</v>
+        <v>11.58337499999999</v>
       </c>
       <c r="B633" t="n">
-        <v>3.393776498588299</v>
+        <v>3.263520508718247</v>
       </c>
       <c r="C633" t="n">
-        <v>10.69838075160369</v>
+        <v>10.14270351377357</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>11.463375</v>
+        <v>12.33633552631579</v>
       </c>
       <c r="B634" t="n">
-        <v>3.412764620378153</v>
+        <v>3.439402136506713</v>
       </c>
       <c r="C634" t="n">
-        <v>10.71757020368029</v>
+        <v>10.03689277501515</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>11.58337499999999</v>
+        <v>6.248488636363636</v>
       </c>
       <c r="B635" t="n">
-        <v>3.263520508718247</v>
+        <v>1.765971816578992</v>
       </c>
       <c r="C635" t="n">
-        <v>10.14270351377357</v>
+        <v>10.17445803243738</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>12.33633552631579</v>
+        <v>6.294267857142859</v>
       </c>
       <c r="B636" t="n">
-        <v>3.439402136506713</v>
+        <v>1.58999325923516</v>
       </c>
       <c r="C636" t="n">
-        <v>10.03689277501515</v>
+        <v>9.093950024308064</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>6.248488636363636</v>
+        <v>6.304982142857143</v>
       </c>
       <c r="B637" t="n">
-        <v>1.765971816578992</v>
+        <v>1.679287301182963</v>
       </c>
       <c r="C637" t="n">
-        <v>10.17445803243738</v>
+        <v>9.588344815706551</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>6.294267857142859</v>
+        <v>6.387894230769229</v>
       </c>
       <c r="B638" t="n">
-        <v>1.58999325923516</v>
+        <v>1.860384291877887</v>
       </c>
       <c r="C638" t="n">
-        <v>9.093950024308064</v>
+        <v>10.48449333819652</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>6.304982142857143</v>
+        <v>49.71392481203008</v>
       </c>
       <c r="B639" t="n">
-        <v>1.679287301182963</v>
+        <v>9.865910864745217</v>
       </c>
       <c r="C639" t="n">
-        <v>9.588344815706551</v>
+        <v>7.144332145847414</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>6.387894230769229</v>
+        <v>49.7032105263158</v>
       </c>
       <c r="B640" t="n">
-        <v>1.860384291877887</v>
+        <v>10.33906206284395</v>
       </c>
       <c r="C640" t="n">
-        <v>10.48449333819652</v>
+        <v>7.488575291636632</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>49.71392481203008</v>
+        <v>48.12821052631578</v>
       </c>
       <c r="B641" t="n">
-        <v>9.865910864745217</v>
+        <v>10.11840258835479</v>
       </c>
       <c r="C641" t="n">
-        <v>7.144332145847414</v>
+        <v>7.568585850113815</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>49.7032105263158</v>
+        <v>28.22106766917294</v>
       </c>
       <c r="B642" t="n">
-        <v>10.33906206284395</v>
+        <v>7.923742800346274</v>
       </c>
       <c r="C642" t="n">
-        <v>7.488575291636632</v>
+        <v>10.10786495239731</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>48.12821052631578</v>
+        <v>28.21768421052631</v>
       </c>
       <c r="B643" t="n">
-        <v>10.11840258835479</v>
+        <v>7.695744715102387</v>
       </c>
       <c r="C643" t="n">
-        <v>7.568585850113815</v>
+        <v>9.818197966803261</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>28.22106766917294</v>
+        <v>28.17821052631579</v>
       </c>
       <c r="B644" t="n">
-        <v>7.923742800346274</v>
+        <v>7.58255509500137</v>
       </c>
       <c r="C644" t="n">
-        <v>10.10786495239731</v>
+        <v>9.687342748934297</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>28.21768421052631</v>
+        <v>28.29663157894736</v>
       </c>
       <c r="B645" t="n">
-        <v>7.695744715102387</v>
+        <v>7.68380881166343</v>
       </c>
       <c r="C645" t="n">
-        <v>9.818197966803261</v>
+        <v>9.775619986715524</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>28.17821052631579</v>
+        <v>19.11866666666667</v>
       </c>
       <c r="B646" t="n">
-        <v>7.58255509500137</v>
+        <v>5.68365142904643</v>
       </c>
       <c r="C646" t="n">
-        <v>9.687342748934297</v>
+        <v>10.70218206180721</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>28.29663157894736</v>
+        <v>19.50929166666667</v>
       </c>
       <c r="B647" t="n">
-        <v>7.68380881166343</v>
+        <v>5.561529318105594</v>
       </c>
       <c r="C647" t="n">
-        <v>9.775619986715524</v>
+        <v>10.26254868052879</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>19.11866666666667</v>
+        <v>19.26278431372549</v>
       </c>
       <c r="B648" t="n">
-        <v>5.68365142904643</v>
+        <v>5.521660060320547</v>
       </c>
       <c r="C648" t="n">
-        <v>10.70218206180721</v>
+        <v>10.31936811076171</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>19.50929166666667</v>
+        <v>19.34498245614035</v>
       </c>
       <c r="B649" t="n">
-        <v>5.561529318105594</v>
+        <v>5.49995671138419</v>
       </c>
       <c r="C649" t="n">
-        <v>10.26254868052879</v>
+        <v>10.23513161920618</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>19.26278431372549</v>
+        <v>54.81241666666667</v>
       </c>
       <c r="B650" t="n">
-        <v>5.521660060320547</v>
+        <v>17.14067247231917</v>
       </c>
       <c r="C650" t="n">
-        <v>10.31936811076171</v>
+        <v>11.25774498789338</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>19.34498245614035</v>
+        <v>55.22383908045976</v>
       </c>
       <c r="B651" t="n">
-        <v>5.49995671138419</v>
+        <v>17.21292240396387</v>
       </c>
       <c r="C651" t="n">
-        <v>10.23513161920618</v>
+        <v>11.22097298668176</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>54.81241666666667</v>
+        <v>55.84235087719298</v>
       </c>
       <c r="B652" t="n">
-        <v>17.14067247231917</v>
+        <v>17.90985993683531</v>
       </c>
       <c r="C652" t="n">
-        <v>11.25774498789338</v>
+        <v>11.5459852172771</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>55.22383908045976</v>
+        <v>56.352</v>
       </c>
       <c r="B653" t="n">
-        <v>17.21292240396387</v>
+        <v>18.54054732188227</v>
       </c>
       <c r="C653" t="n">
-        <v>11.22097298668176</v>
+        <v>11.84447230955</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>55.84235087719298</v>
+        <v>56.51509523809523</v>
       </c>
       <c r="B654" t="n">
-        <v>17.90985993683531</v>
+        <v>18.64339788435457</v>
       </c>
       <c r="C654" t="n">
-        <v>11.5459852172771</v>
+        <v>11.87580629580808</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>56.352</v>
+        <v>37.35796338461539</v>
       </c>
       <c r="B655" t="n">
-        <v>18.54054732188227</v>
+        <v>10.38171944766427</v>
       </c>
       <c r="C655" t="n">
-        <v>11.84447230955</v>
+        <v>10.00434355235293</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>56.51509523809523</v>
+        <v>36.277596</v>
       </c>
       <c r="B656" t="n">
-        <v>18.64339788435457</v>
+        <v>10.02500889087</v>
       </c>
       <c r="C656" t="n">
-        <v>11.87580629580808</v>
+        <v>9.948297568320678</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>37.35796338461539</v>
+        <v>37.01250609625669</v>
       </c>
       <c r="B657" t="n">
-        <v>10.38171944766427</v>
+        <v>10.05257680554413</v>
       </c>
       <c r="C657" t="n">
-        <v>10.00434355235293</v>
+        <v>9.777580692818566</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>36.277596</v>
+        <v>19.55506797202797</v>
       </c>
       <c r="B658" t="n">
-        <v>10.02500889087</v>
+        <v>5.472535395688657</v>
       </c>
       <c r="C658" t="n">
-        <v>9.948297568320678</v>
+        <v>10.07469135502884</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>37.01250609625669</v>
+        <v>19.67622346153846</v>
       </c>
       <c r="B659" t="n">
-        <v>10.05257680554413</v>
+        <v>5.759385392166853</v>
       </c>
       <c r="C659" t="n">
-        <v>9.777580692818566</v>
+        <v>10.53748319759097</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>19.55506797202797</v>
+        <v>19.19260034188034</v>
       </c>
       <c r="B660" t="n">
-        <v>5.472535395688657</v>
+        <v>5.463827236767876</v>
       </c>
       <c r="C660" t="n">
-        <v>10.07469135502884</v>
+        <v>10.24862587767368</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>19.67622346153846</v>
+        <v>6.097738461538463</v>
       </c>
       <c r="B661" t="n">
-        <v>5.759385392166853</v>
+        <v>2.004178898036645</v>
       </c>
       <c r="C661" t="n">
-        <v>10.53748319759097</v>
+        <v>11.8323278022514</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>19.19260034188034</v>
+        <v>8.197063272727272</v>
       </c>
       <c r="B662" t="n">
-        <v>5.463827236767876</v>
+        <v>2.484750350822812</v>
       </c>
       <c r="C662" t="n">
-        <v>10.24862587767368</v>
+        <v>10.91256827640171</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>6.097738461538463</v>
+        <v>7.870919160839161</v>
       </c>
       <c r="B663" t="n">
-        <v>2.004178898036645</v>
+        <v>2.623999649626961</v>
       </c>
       <c r="C663" t="n">
-        <v>11.8323278022514</v>
+        <v>12.00164624438847</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>8.197063272727272</v>
+        <v>77.82535846153846</v>
       </c>
       <c r="B664" t="n">
-        <v>2.484750350822812</v>
+        <v>22.32987301363936</v>
       </c>
       <c r="C664" t="n">
-        <v>10.91256827640171</v>
+        <v>10.32922230468485</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>7.870919160839161</v>
+        <v>77.4299948717949</v>
       </c>
       <c r="B665" t="n">
-        <v>2.623999649626961</v>
+        <v>22.736154007113</v>
       </c>
       <c r="C665" t="n">
-        <v>12.00164624438847</v>
+        <v>10.5708588204262</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>77.82535846153846</v>
+        <v>76.93480800000002</v>
       </c>
       <c r="B666" t="n">
-        <v>22.32987301363936</v>
+        <v>21.98562190309271</v>
       </c>
       <c r="C666" t="n">
-        <v>10.32922230468485</v>
+        <v>10.287702134921</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>77.4299948717949</v>
+        <v>210.852142745098</v>
       </c>
       <c r="B667" t="n">
-        <v>22.736154007113</v>
+        <v>52.72296665537507</v>
       </c>
       <c r="C667" t="n">
-        <v>10.5708588204262</v>
+        <v>9.001695571517393</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>76.93480800000002</v>
+        <v>211.8649641025641</v>
       </c>
       <c r="B668" t="n">
-        <v>21.98562190309271</v>
+        <v>51.00335179813916</v>
       </c>
       <c r="C668" t="n">
-        <v>10.287702134921</v>
+        <v>8.666466739843502</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>210.852142745098</v>
+        <v>210.522667972028</v>
       </c>
       <c r="B669" t="n">
-        <v>52.72296665537507</v>
+        <v>50.3860611393662</v>
       </c>
       <c r="C669" t="n">
-        <v>9.001695571517393</v>
+        <v>8.616165748280343</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>211.8649641025641</v>
+        <v>207.8168342245989</v>
       </c>
       <c r="B670" t="n">
-        <v>51.00335179813916</v>
+        <v>49.63470423097692</v>
       </c>
       <c r="C670" t="n">
-        <v>8.666466739843502</v>
+        <v>8.598193495643494</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>210.522667972028</v>
+        <v>154.8781876363637</v>
       </c>
       <c r="B671" t="n">
-        <v>50.3860611393662</v>
+        <v>36.79264857969325</v>
       </c>
       <c r="C671" t="n">
-        <v>8.616165748280343</v>
+        <v>8.55211033317884</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>207.8168342245989</v>
+        <v>154.1153015873016</v>
       </c>
       <c r="B672" t="n">
-        <v>49.63470423097692</v>
+        <v>36.58829318171714</v>
       </c>
       <c r="C672" t="n">
-        <v>8.598193495643494</v>
+        <v>8.546708477196052</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>154.8781876363637</v>
+        <v>153.9716861538462</v>
       </c>
       <c r="B673" t="n">
-        <v>36.79264857969325</v>
+        <v>36.20178310263492</v>
       </c>
       <c r="C673" t="n">
-        <v>8.55211033317884</v>
+        <v>8.464310707052045</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>154.1153015873016</v>
+        <v>98.59673599999999</v>
       </c>
       <c r="B674" t="n">
-        <v>36.58829318171714</v>
+        <v>24.32667072111417</v>
       </c>
       <c r="C674" t="n">
-        <v>8.546708477196052</v>
+        <v>8.882242774853218</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>153.9716861538462</v>
+        <v>96.16745485714286</v>
       </c>
       <c r="B675" t="n">
-        <v>36.20178310263492</v>
+        <v>24.234175698075</v>
       </c>
       <c r="C675" t="n">
-        <v>8.464310707052045</v>
+        <v>9.071991417748329</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>98.59673599999999</v>
+        <v>96.62227854545453</v>
       </c>
       <c r="B676" t="n">
-        <v>24.32667072111417</v>
+        <v>24.18640380042392</v>
       </c>
       <c r="C676" t="n">
-        <v>8.882242774853218</v>
+        <v>9.011488343298053</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>96.16745485714286</v>
+        <v>127.2531565384616</v>
       </c>
       <c r="B677" t="n">
-        <v>24.234175698075</v>
+        <v>31.67714460905044</v>
       </c>
       <c r="C677" t="n">
-        <v>9.071991417748329</v>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="n">
-        <v>96.62227854545453</v>
-      </c>
-      <c r="B678" t="n">
-        <v>24.18640380042392</v>
-      </c>
-      <c r="C678" t="n">
-        <v>9.011488343298053</v>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="n">
-        <v>127.2531565384616</v>
-      </c>
-      <c r="B679" t="n">
-        <v>31.67714460905044</v>
-      </c>
-      <c r="C679" t="n">
         <v>8.961484625971877</v>
       </c>
     </row>
